--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5827,28 +5827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1586.264972831329</v>
+        <v>1781.968078430592</v>
       </c>
       <c r="AB2" t="n">
-        <v>2170.39771689941</v>
+        <v>2438.167339791996</v>
       </c>
       <c r="AC2" t="n">
-        <v>1963.258004970857</v>
+        <v>2205.472070871601</v>
       </c>
       <c r="AD2" t="n">
-        <v>1586264.972831329</v>
+        <v>1781968.078430592</v>
       </c>
       <c r="AE2" t="n">
-        <v>2170397.71689941</v>
+        <v>2438167.339791996</v>
       </c>
       <c r="AF2" t="n">
         <v>3.90358197019745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.20833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1963258.004970857</v>
+        <v>2205472.070871601</v>
       </c>
     </row>
     <row r="3">
@@ -5933,28 +5933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>612.8606161105762</v>
+        <v>730.2545405171946</v>
       </c>
       <c r="AB3" t="n">
-        <v>838.5429324646628</v>
+        <v>999.1664788922237</v>
       </c>
       <c r="AC3" t="n">
-        <v>758.5135718926319</v>
+        <v>903.8074324857099</v>
       </c>
       <c r="AD3" t="n">
-        <v>612860.6161105762</v>
+        <v>730254.5405171947</v>
       </c>
       <c r="AE3" t="n">
-        <v>838542.9324646628</v>
+        <v>999166.4788922237</v>
       </c>
       <c r="AF3" t="n">
         <v>7.201831871871567e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.79166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>758513.5718926319</v>
+        <v>903807.4324857099</v>
       </c>
     </row>
     <row r="4">
@@ -6039,28 +6039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>491.9411435053372</v>
+        <v>589.7921907900399</v>
       </c>
       <c r="AB4" t="n">
-        <v>673.0955754555401</v>
+        <v>806.9796952340062</v>
       </c>
       <c r="AC4" t="n">
-        <v>608.8562784296361</v>
+        <v>729.9626857239874</v>
       </c>
       <c r="AD4" t="n">
-        <v>491941.1435053372</v>
+        <v>589792.1907900398</v>
       </c>
       <c r="AE4" t="n">
-        <v>673095.5754555401</v>
+        <v>806979.6952340062</v>
       </c>
       <c r="AF4" t="n">
         <v>8.392908412425879e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="AH4" t="n">
-        <v>608856.278429636</v>
+        <v>729962.6857239874</v>
       </c>
     </row>
     <row r="5">
@@ -6145,28 +6145,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>446.7967381527717</v>
+        <v>534.7919443594214</v>
       </c>
       <c r="AB5" t="n">
-        <v>611.3270084215579</v>
+        <v>731.7259316280112</v>
       </c>
       <c r="AC5" t="n">
-        <v>552.9828167406488</v>
+        <v>661.8910356972281</v>
       </c>
       <c r="AD5" t="n">
-        <v>446796.7381527717</v>
+        <v>534791.9443594215</v>
       </c>
       <c r="AE5" t="n">
-        <v>611327.008421558</v>
+        <v>731725.9316280112</v>
       </c>
       <c r="AF5" t="n">
         <v>9.012931178318478e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.4125</v>
       </c>
       <c r="AH5" t="n">
-        <v>552982.8167406488</v>
+        <v>661891.035697228</v>
       </c>
     </row>
     <row r="6">
@@ -6251,28 +6251,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>417.397140709333</v>
+        <v>505.4596667236873</v>
       </c>
       <c r="AB6" t="n">
-        <v>571.101182180745</v>
+        <v>691.5922153180396</v>
       </c>
       <c r="AC6" t="n">
-        <v>516.5960868989574</v>
+        <v>625.5876249438556</v>
       </c>
       <c r="AD6" t="n">
-        <v>417397.1407093329</v>
+        <v>505459.6667236873</v>
       </c>
       <c r="AE6" t="n">
-        <v>571101.1821807451</v>
+        <v>691592.2153180396</v>
       </c>
       <c r="AF6" t="n">
         <v>9.401669631782123e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.69583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>516596.0868989574</v>
+        <v>625587.6249438557</v>
       </c>
     </row>
     <row r="7">
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>404.5248823186429</v>
+        <v>482.7657326737253</v>
       </c>
       <c r="AB7" t="n">
-        <v>553.488790366642</v>
+        <v>660.5413735651716</v>
       </c>
       <c r="AC7" t="n">
-        <v>500.6645970404451</v>
+        <v>597.5002319477512</v>
       </c>
       <c r="AD7" t="n">
-        <v>404524.8823186429</v>
+        <v>482765.7326737253</v>
       </c>
       <c r="AE7" t="n">
-        <v>553488.7903666419</v>
+        <v>660541.3735651716</v>
       </c>
       <c r="AF7" t="n">
         <v>9.676272667223014e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.22083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>500664.5970404451</v>
+        <v>597500.2319477513</v>
       </c>
     </row>
     <row r="8">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>385.8581242742044</v>
+        <v>473.886484869778</v>
       </c>
       <c r="AB8" t="n">
-        <v>527.9481084909975</v>
+        <v>648.3923949950442</v>
       </c>
       <c r="AC8" t="n">
-        <v>477.5614819964399</v>
+        <v>586.5107348411583</v>
       </c>
       <c r="AD8" t="n">
-        <v>385858.1242742044</v>
+        <v>473886.484869778</v>
       </c>
       <c r="AE8" t="n">
-        <v>527948.1084909975</v>
+        <v>648392.3949950442</v>
       </c>
       <c r="AF8" t="n">
         <v>9.867251733023468e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.90833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>477561.4819964399</v>
+        <v>586510.7348411583</v>
       </c>
     </row>
     <row r="9">
@@ -6569,28 +6569,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>379.8886568214857</v>
+        <v>458.1968269842725</v>
       </c>
       <c r="AB9" t="n">
-        <v>519.7804197678702</v>
+        <v>626.9251128972412</v>
       </c>
       <c r="AC9" t="n">
-        <v>470.1733060216249</v>
+        <v>567.0922600172499</v>
       </c>
       <c r="AD9" t="n">
-        <v>379888.6568214857</v>
+        <v>458196.8269842725</v>
       </c>
       <c r="AE9" t="n">
-        <v>519780.4197678702</v>
+        <v>626925.1128972413</v>
       </c>
       <c r="AF9" t="n">
         <v>9.991934318388261e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.70833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>470173.3060216248</v>
+        <v>567092.26001725</v>
       </c>
     </row>
     <row r="10">
@@ -6675,28 +6675,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>374.2306640360451</v>
+        <v>452.5388341988319</v>
       </c>
       <c r="AB10" t="n">
-        <v>512.0389044258055</v>
+        <v>619.1835975551766</v>
       </c>
       <c r="AC10" t="n">
-        <v>463.1706300385217</v>
+        <v>560.0895840341468</v>
       </c>
       <c r="AD10" t="n">
-        <v>374230.6640360451</v>
+        <v>452538.8341988319</v>
       </c>
       <c r="AE10" t="n">
-        <v>512038.9044258056</v>
+        <v>619183.5975551766</v>
       </c>
       <c r="AF10" t="n">
         <v>1.01120966891779e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>463170.6300385217</v>
+        <v>560089.5840341469</v>
       </c>
     </row>
     <row r="11">
@@ -6781,28 +6781,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>369.5321013918393</v>
+        <v>447.7387863281407</v>
       </c>
       <c r="AB11" t="n">
-        <v>505.6101237300488</v>
+        <v>612.6159602953305</v>
       </c>
       <c r="AC11" t="n">
-        <v>457.3554031495177</v>
+        <v>554.1487528566438</v>
       </c>
       <c r="AD11" t="n">
-        <v>369532.1013918393</v>
+        <v>447738.7863281408</v>
       </c>
       <c r="AE11" t="n">
-        <v>505610.1237300488</v>
+        <v>612615.9602953305</v>
       </c>
       <c r="AF11" t="n">
         <v>1.020513777251658e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.37916666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>457355.4031495177</v>
+        <v>554148.7528566438</v>
       </c>
     </row>
     <row r="12">
@@ -6887,28 +6887,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>365.8305346881653</v>
+        <v>444.0372196244668</v>
       </c>
       <c r="AB12" t="n">
-        <v>500.5454768644843</v>
+        <v>607.5513134297661</v>
       </c>
       <c r="AC12" t="n">
-        <v>452.7741190725261</v>
+        <v>549.5674687796521</v>
       </c>
       <c r="AD12" t="n">
-        <v>365830.5346881653</v>
+        <v>444037.2196244668</v>
       </c>
       <c r="AE12" t="n">
-        <v>500545.4768644843</v>
+        <v>607551.3134297661</v>
       </c>
       <c r="AF12" t="n">
         <v>1.027557778297947e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.275</v>
       </c>
       <c r="AH12" t="n">
-        <v>452774.1190725261</v>
+        <v>549567.4687796521</v>
       </c>
     </row>
     <row r="13">
@@ -6993,28 +6993,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>361.8517880052272</v>
+        <v>430.3382825087421</v>
       </c>
       <c r="AB13" t="n">
-        <v>495.1015801229731</v>
+        <v>588.807823313579</v>
       </c>
       <c r="AC13" t="n">
-        <v>447.8497801954676</v>
+        <v>532.6128310535005</v>
       </c>
       <c r="AD13" t="n">
-        <v>361851.7880052272</v>
+        <v>430338.2825087421</v>
       </c>
       <c r="AE13" t="n">
-        <v>495101.5801229731</v>
+        <v>588807.823313579</v>
       </c>
       <c r="AF13" t="n">
         <v>1.034752453163408e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>447849.7801954676</v>
+        <v>532612.8310535005</v>
       </c>
     </row>
     <row r="14">
@@ -7099,28 +7099,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>358.7791199788869</v>
+        <v>427.2656144824018</v>
       </c>
       <c r="AB14" t="n">
-        <v>490.8974201727881</v>
+        <v>584.6036633633939</v>
       </c>
       <c r="AC14" t="n">
-        <v>444.0468593703527</v>
+        <v>528.8099102283855</v>
       </c>
       <c r="AD14" t="n">
-        <v>358779.1199788869</v>
+        <v>427265.6144824018</v>
       </c>
       <c r="AE14" t="n">
-        <v>490897.4201727881</v>
+        <v>584603.663363394</v>
       </c>
       <c r="AF14" t="n">
         <v>1.039837694560461e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.09166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>444046.8593703527</v>
+        <v>528809.9102283856</v>
       </c>
     </row>
     <row r="15">
@@ -7205,28 +7205,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>355.4318340721181</v>
+        <v>423.918328575633</v>
       </c>
       <c r="AB15" t="n">
-        <v>486.3175159233149</v>
+        <v>580.023759113921</v>
       </c>
       <c r="AC15" t="n">
-        <v>439.9040547545134</v>
+        <v>524.6671056125463</v>
       </c>
       <c r="AD15" t="n">
-        <v>355431.8340721182</v>
+        <v>423918.328575633</v>
       </c>
       <c r="AE15" t="n">
-        <v>486317.515923315</v>
+        <v>580023.759113921</v>
       </c>
       <c r="AF15" t="n">
         <v>1.044621588319171e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.025</v>
       </c>
       <c r="AH15" t="n">
-        <v>439904.0547545134</v>
+        <v>524667.1056125463</v>
       </c>
     </row>
     <row r="16">
@@ -7311,28 +7311,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>342.9286349995773</v>
+        <v>421.2026397435833</v>
       </c>
       <c r="AB16" t="n">
-        <v>469.2100873500515</v>
+        <v>576.3080338461748</v>
       </c>
       <c r="AC16" t="n">
-        <v>424.4293351538555</v>
+        <v>521.3060039493007</v>
       </c>
       <c r="AD16" t="n">
-        <v>342928.6349995773</v>
+        <v>421202.6397435833</v>
       </c>
       <c r="AE16" t="n">
-        <v>469210.0873500516</v>
+        <v>576308.0338461748</v>
       </c>
       <c r="AF16" t="n">
         <v>1.049782166625811e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.95</v>
       </c>
       <c r="AH16" t="n">
-        <v>424429.3351538555</v>
+        <v>521306.0039493007</v>
       </c>
     </row>
     <row r="17">
@@ -7417,28 +7417,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>340.5263773123032</v>
+        <v>418.8003820563092</v>
       </c>
       <c r="AB17" t="n">
-        <v>465.9232124021937</v>
+        <v>573.0211588983169</v>
       </c>
       <c r="AC17" t="n">
-        <v>421.4561549378632</v>
+        <v>518.3328237333084</v>
       </c>
       <c r="AD17" t="n">
-        <v>340526.3773123032</v>
+        <v>418800.3820563091</v>
       </c>
       <c r="AE17" t="n">
-        <v>465923.2124021937</v>
+        <v>573021.1588983169</v>
       </c>
       <c r="AF17" t="n">
         <v>1.052456626916113e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.9125</v>
       </c>
       <c r="AH17" t="n">
-        <v>421456.1549378632</v>
+        <v>518332.8237333084</v>
       </c>
     </row>
     <row r="18">
@@ -7523,28 +7523,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>337.2039504145822</v>
+        <v>415.4779551585881</v>
       </c>
       <c r="AB18" t="n">
-        <v>461.3773213456019</v>
+        <v>568.4752678417251</v>
       </c>
       <c r="AC18" t="n">
-        <v>417.3441173435144</v>
+        <v>514.2207861389595</v>
       </c>
       <c r="AD18" t="n">
-        <v>337203.9504145822</v>
+        <v>415477.9551585881</v>
       </c>
       <c r="AE18" t="n">
-        <v>461377.3213456019</v>
+        <v>568475.2678417251</v>
       </c>
       <c r="AF18" t="n">
         <v>1.057014509946064e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.85</v>
       </c>
       <c r="AH18" t="n">
-        <v>417344.1173435143</v>
+        <v>514220.7861389595</v>
       </c>
     </row>
     <row r="19">
@@ -7629,28 +7629,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>334.675431891652</v>
+        <v>412.9494366356579</v>
       </c>
       <c r="AB19" t="n">
-        <v>457.9176907521643</v>
+        <v>565.0156372482876</v>
       </c>
       <c r="AC19" t="n">
-        <v>414.2146690382925</v>
+        <v>511.0913378337376</v>
       </c>
       <c r="AD19" t="n">
-        <v>334675.431891652</v>
+        <v>412949.436635658</v>
       </c>
       <c r="AE19" t="n">
-        <v>457917.6907521643</v>
+        <v>565015.6372482876</v>
       </c>
       <c r="AF19" t="n">
         <v>1.059613633326781e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.8125</v>
       </c>
       <c r="AH19" t="n">
-        <v>414214.6690382925</v>
+        <v>511091.3378337376</v>
       </c>
     </row>
     <row r="20">
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>332.1685506454826</v>
+        <v>410.4425553894886</v>
       </c>
       <c r="AB20" t="n">
-        <v>454.4876652353603</v>
+        <v>561.5856117314835</v>
       </c>
       <c r="AC20" t="n">
-        <v>411.1120003427412</v>
+        <v>507.9886691381863</v>
       </c>
       <c r="AD20" t="n">
-        <v>332168.5506454826</v>
+        <v>410442.5553894886</v>
       </c>
       <c r="AE20" t="n">
-        <v>454487.6652353603</v>
+        <v>561585.6117314835</v>
       </c>
       <c r="AF20" t="n">
         <v>1.062212756707497e-05</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.775</v>
       </c>
       <c r="AH20" t="n">
-        <v>411112.0003427411</v>
+        <v>507988.6691381863</v>
       </c>
     </row>
     <row r="21">
@@ -7841,28 +7841,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>331.3504972855652</v>
+        <v>409.6245020295711</v>
       </c>
       <c r="AB21" t="n">
-        <v>453.3683685383541</v>
+        <v>560.4663150344772</v>
       </c>
       <c r="AC21" t="n">
-        <v>410.0995277515545</v>
+        <v>506.9761965469996</v>
       </c>
       <c r="AD21" t="n">
-        <v>331350.4972855652</v>
+        <v>409624.5020295711</v>
       </c>
       <c r="AE21" t="n">
-        <v>453368.3685383541</v>
+        <v>560466.3150344773</v>
       </c>
       <c r="AF21" t="n">
         <v>1.061760735249981e-05</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.78333333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>410099.5277515545</v>
+        <v>506976.1965469996</v>
       </c>
     </row>
     <row r="22">
@@ -7947,28 +7947,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>330.3548223929221</v>
+        <v>408.6288271369281</v>
       </c>
       <c r="AB22" t="n">
-        <v>452.0060422241637</v>
+        <v>559.103988720287</v>
       </c>
       <c r="AC22" t="n">
-        <v>408.8672199487534</v>
+        <v>505.7438887441986</v>
       </c>
       <c r="AD22" t="n">
-        <v>330354.8223929221</v>
+        <v>408628.827136928</v>
       </c>
       <c r="AE22" t="n">
-        <v>452006.0422241637</v>
+        <v>559103.988720287</v>
       </c>
       <c r="AF22" t="n">
         <v>1.06477421163342e-05</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.74166666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>408867.2199487534</v>
+        <v>505743.8887441986</v>
       </c>
     </row>
     <row r="23">
@@ -8053,28 +8053,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>330.9963402297274</v>
+        <v>409.2703449737334</v>
       </c>
       <c r="AB23" t="n">
-        <v>452.8837952302503</v>
+        <v>559.9817417263736</v>
       </c>
       <c r="AC23" t="n">
-        <v>409.6612014398731</v>
+        <v>506.5378702353183</v>
       </c>
       <c r="AD23" t="n">
-        <v>330996.3402297274</v>
+        <v>409270.3449737334</v>
       </c>
       <c r="AE23" t="n">
-        <v>452883.7952302503</v>
+        <v>559981.7417263736</v>
       </c>
       <c r="AF23" t="n">
         <v>1.064661206269041e-05</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>14.74166666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>409661.2014398731</v>
+        <v>506537.8702353183</v>
       </c>
     </row>
     <row r="24">
@@ -8159,28 +8159,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>331.7609354216854</v>
+        <v>410.0349401656913</v>
       </c>
       <c r="AB24" t="n">
-        <v>453.9299481034464</v>
+        <v>561.0278945995697</v>
       </c>
       <c r="AC24" t="n">
-        <v>410.6075109511362</v>
+        <v>507.4841797465813</v>
       </c>
       <c r="AD24" t="n">
-        <v>331760.9354216854</v>
+        <v>410034.9401656913</v>
       </c>
       <c r="AE24" t="n">
-        <v>453929.9481034464</v>
+        <v>561027.8945995696</v>
       </c>
       <c r="AF24" t="n">
         <v>1.064585869359455e-05</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>14.74166666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>410607.5109511362</v>
+        <v>507484.1797465814</v>
       </c>
     </row>
   </sheetData>
@@ -8456,28 +8456,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1020.240671592475</v>
+        <v>1184.741676306752</v>
       </c>
       <c r="AB2" t="n">
-        <v>1395.938296714621</v>
+        <v>1621.015828636829</v>
       </c>
       <c r="AC2" t="n">
-        <v>1262.711904887881</v>
+        <v>1466.308353061734</v>
       </c>
       <c r="AD2" t="n">
-        <v>1020240.671592475</v>
+        <v>1184741.676306752</v>
       </c>
       <c r="AE2" t="n">
-        <v>1395938.296714621</v>
+        <v>1621015.828636829</v>
       </c>
       <c r="AF2" t="n">
         <v>5.412514570306458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1262711.904887881</v>
+        <v>1466308.353061734</v>
       </c>
     </row>
     <row r="3">
@@ -8562,28 +8562,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>502.9730227465993</v>
+        <v>609.3907325602271</v>
       </c>
       <c r="AB3" t="n">
-        <v>688.1898793255981</v>
+        <v>833.7952847106168</v>
       </c>
       <c r="AC3" t="n">
-        <v>622.5100031233243</v>
+        <v>754.2190329768666</v>
       </c>
       <c r="AD3" t="n">
-        <v>502973.0227465993</v>
+        <v>609390.732560227</v>
       </c>
       <c r="AE3" t="n">
-        <v>688189.8793255981</v>
+        <v>833795.2847106168</v>
       </c>
       <c r="AF3" t="n">
         <v>8.615015195594393e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.93333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>622510.0031233242</v>
+        <v>754219.0329768666</v>
       </c>
     </row>
     <row r="4">
@@ -8668,28 +8668,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>424.0742429250707</v>
+        <v>511.1991852760437</v>
       </c>
       <c r="AB4" t="n">
-        <v>580.2370880052773</v>
+        <v>699.4452778110616</v>
       </c>
       <c r="AC4" t="n">
-        <v>524.8600746939205</v>
+        <v>632.691202174386</v>
       </c>
       <c r="AD4" t="n">
-        <v>424074.2429250707</v>
+        <v>511199.1852760438</v>
       </c>
       <c r="AE4" t="n">
-        <v>580237.0880052773</v>
+        <v>699445.2778110616</v>
       </c>
       <c r="AF4" t="n">
         <v>9.72455595277266e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.65833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>524860.0746939206</v>
+        <v>632691.202174386</v>
       </c>
     </row>
     <row r="5">
@@ -8774,28 +8774,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>388.7160431460033</v>
+        <v>475.8068200781955</v>
       </c>
       <c r="AB5" t="n">
-        <v>531.8584391738748</v>
+        <v>651.0198823464112</v>
       </c>
       <c r="AC5" t="n">
-        <v>481.0986162071271</v>
+        <v>588.8874584874127</v>
       </c>
       <c r="AD5" t="n">
-        <v>388716.0431460033</v>
+        <v>475806.8200781955</v>
       </c>
       <c r="AE5" t="n">
-        <v>531858.4391738748</v>
+        <v>651019.8823464112</v>
       </c>
       <c r="AF5" t="n">
         <v>1.031848174441229e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.64166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>481098.6162071271</v>
+        <v>588887.4584874127</v>
       </c>
     </row>
     <row r="6">
@@ -8880,28 +8880,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>374.0342328584025</v>
+        <v>451.411306251563</v>
       </c>
       <c r="AB6" t="n">
-        <v>511.7701386226229</v>
+        <v>617.6408640747009</v>
       </c>
       <c r="AC6" t="n">
-        <v>462.9275148663798</v>
+        <v>558.6940868718078</v>
       </c>
       <c r="AD6" t="n">
-        <v>374034.2328584025</v>
+        <v>451411.306251563</v>
       </c>
       <c r="AE6" t="n">
-        <v>511770.1386226229</v>
+        <v>617640.8640747009</v>
       </c>
       <c r="AF6" t="n">
         <v>1.069066424951332e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.0625</v>
       </c>
       <c r="AH6" t="n">
-        <v>462927.5148663798</v>
+        <v>558694.0868718078</v>
       </c>
     </row>
     <row r="7">
@@ -8986,28 +8986,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>354.315477126527</v>
+        <v>431.7598703273919</v>
       </c>
       <c r="AB7" t="n">
-        <v>484.7900671001645</v>
+        <v>590.752902483084</v>
       </c>
       <c r="AC7" t="n">
-        <v>438.5223835032566</v>
+        <v>534.3722745970038</v>
       </c>
       <c r="AD7" t="n">
-        <v>354315.477126527</v>
+        <v>431759.8703273919</v>
       </c>
       <c r="AE7" t="n">
-        <v>484790.0671001645</v>
+        <v>590752.902483084</v>
       </c>
       <c r="AF7" t="n">
         <v>1.094125889303649e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.69583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>438522.3835032566</v>
+        <v>534372.2745970037</v>
       </c>
     </row>
     <row r="8">
@@ -9092,28 +9092,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>347.9618620110373</v>
+        <v>425.304769985417</v>
       </c>
       <c r="AB8" t="n">
-        <v>476.0967705974354</v>
+        <v>581.9207494162655</v>
       </c>
       <c r="AC8" t="n">
-        <v>430.6587630176296</v>
+        <v>526.3830498228779</v>
       </c>
       <c r="AD8" t="n">
-        <v>347961.8620110373</v>
+        <v>425304.769985417</v>
       </c>
       <c r="AE8" t="n">
-        <v>476096.7705974354</v>
+        <v>581920.7494162655</v>
       </c>
       <c r="AF8" t="n">
         <v>1.109540757178266e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.47916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>430658.7630176296</v>
+        <v>526383.0498228779</v>
       </c>
     </row>
     <row r="9">
@@ -9198,28 +9198,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>341.9541850678348</v>
+        <v>419.2970930422144</v>
       </c>
       <c r="AB9" t="n">
-        <v>467.8768019637446</v>
+        <v>573.7007807825747</v>
       </c>
       <c r="AC9" t="n">
-        <v>423.2232966535399</v>
+        <v>518.9475834587879</v>
       </c>
       <c r="AD9" t="n">
-        <v>341954.1850678348</v>
+        <v>419297.0930422144</v>
       </c>
       <c r="AE9" t="n">
-        <v>467876.8019637446</v>
+        <v>573700.7807825747</v>
       </c>
       <c r="AF9" t="n">
         <v>1.123677922100708e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.28333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>423223.2966535399</v>
+        <v>518947.5834587879</v>
       </c>
     </row>
     <row r="10">
@@ -9304,28 +9304,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>337.2223844580855</v>
+        <v>404.9530741199187</v>
       </c>
       <c r="AB10" t="n">
-        <v>461.4025436171756</v>
+        <v>554.0746612796364</v>
       </c>
       <c r="AC10" t="n">
-        <v>417.3669324368888</v>
+        <v>501.1945532557784</v>
       </c>
       <c r="AD10" t="n">
-        <v>337222.3844580855</v>
+        <v>404953.0741199186</v>
       </c>
       <c r="AE10" t="n">
-        <v>461402.5436171757</v>
+        <v>554074.6612796364</v>
       </c>
       <c r="AF10" t="n">
         <v>1.134105626839419e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.14166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>417366.9324368888</v>
+        <v>501194.5532557784</v>
       </c>
     </row>
     <row r="11">
@@ -9410,28 +9410,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>332.2717543127537</v>
+        <v>400.0024439745869</v>
       </c>
       <c r="AB11" t="n">
-        <v>454.6288730459451</v>
+        <v>547.3009907084058</v>
       </c>
       <c r="AC11" t="n">
-        <v>411.2397314780702</v>
+        <v>495.0673522969596</v>
       </c>
       <c r="AD11" t="n">
-        <v>332271.7543127537</v>
+        <v>400002.4439745869</v>
       </c>
       <c r="AE11" t="n">
-        <v>454628.8730459451</v>
+        <v>547300.9907084059</v>
       </c>
       <c r="AF11" t="n">
         <v>1.143626574644329e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.01666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>411239.7314780701</v>
+        <v>495067.3522969596</v>
       </c>
     </row>
     <row r="12">
@@ -9516,28 +9516,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>319.1201093874158</v>
+        <v>396.5303371694999</v>
       </c>
       <c r="AB12" t="n">
-        <v>436.6342122494729</v>
+        <v>542.5503009991446</v>
       </c>
       <c r="AC12" t="n">
-        <v>394.9624558523482</v>
+        <v>490.7700617459153</v>
       </c>
       <c r="AD12" t="n">
-        <v>319120.1093874158</v>
+        <v>396530.3371695</v>
       </c>
       <c r="AE12" t="n">
-        <v>436634.2122494729</v>
+        <v>542550.3009991446</v>
       </c>
       <c r="AF12" t="n">
         <v>1.148696170228762e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.95</v>
       </c>
       <c r="AH12" t="n">
-        <v>394962.4558523482</v>
+        <v>490770.0617459153</v>
       </c>
     </row>
     <row r="13">
@@ -9622,28 +9622,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>314.7562731774681</v>
+        <v>392.1665009595523</v>
       </c>
       <c r="AB13" t="n">
-        <v>430.6634190281561</v>
+        <v>536.5795077778276</v>
       </c>
       <c r="AC13" t="n">
-        <v>389.561506756013</v>
+        <v>485.3691126495801</v>
       </c>
       <c r="AD13" t="n">
-        <v>314756.2731774681</v>
+        <v>392166.5009595522</v>
       </c>
       <c r="AE13" t="n">
-        <v>430663.4190281561</v>
+        <v>536579.5077778277</v>
       </c>
       <c r="AF13" t="n">
         <v>1.155785360802115e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.85833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>389561.506756013</v>
+        <v>485369.1126495801</v>
       </c>
     </row>
     <row r="14">
@@ -9728,28 +9728,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>311.2356470650424</v>
+        <v>388.6458748471265</v>
       </c>
       <c r="AB14" t="n">
-        <v>425.846343062073</v>
+        <v>531.7624318117446</v>
       </c>
       <c r="AC14" t="n">
-        <v>385.2041657593242</v>
+        <v>481.0117716528914</v>
       </c>
       <c r="AD14" t="n">
-        <v>311235.6470650423</v>
+        <v>388645.8748471265</v>
       </c>
       <c r="AE14" t="n">
-        <v>425846.343062073</v>
+        <v>531762.4318117446</v>
       </c>
       <c r="AF14" t="n">
         <v>1.161844145768876e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.77916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>385204.1657593242</v>
+        <v>481011.7716528914</v>
       </c>
     </row>
     <row r="15">
@@ -9834,28 +9834,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>309.5579394554589</v>
+        <v>386.968167237543</v>
       </c>
       <c r="AB15" t="n">
-        <v>423.550829495405</v>
+        <v>529.4669182450765</v>
       </c>
       <c r="AC15" t="n">
-        <v>383.1277327856855</v>
+        <v>478.9353386792527</v>
       </c>
       <c r="AD15" t="n">
-        <v>309557.9394554589</v>
+        <v>386968.167237543</v>
       </c>
       <c r="AE15" t="n">
-        <v>423550.829495405</v>
+        <v>529466.9182450766</v>
       </c>
       <c r="AF15" t="n">
         <v>1.16390495698206e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.75416666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>383127.7327856855</v>
+        <v>478935.3386792527</v>
       </c>
     </row>
     <row r="16">
@@ -9940,28 +9940,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>308.121882504833</v>
+        <v>385.5321102869171</v>
       </c>
       <c r="AB16" t="n">
-        <v>421.5859530211972</v>
+        <v>527.5020417708688</v>
       </c>
       <c r="AC16" t="n">
-        <v>381.3503813644547</v>
+        <v>477.1579872580218</v>
       </c>
       <c r="AD16" t="n">
-        <v>308121.882504833</v>
+        <v>385532.1102869171</v>
       </c>
       <c r="AE16" t="n">
-        <v>421585.9530211972</v>
+        <v>527502.0417708688</v>
       </c>
       <c r="AF16" t="n">
         <v>1.166584011559199e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.72083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>381350.3813644547</v>
+        <v>477157.9872580218</v>
       </c>
     </row>
     <row r="17">
@@ -10046,28 +10046,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>308.8711347644627</v>
+        <v>386.2813625465469</v>
       </c>
       <c r="AB17" t="n">
-        <v>422.6111130174994</v>
+        <v>528.5272017671711</v>
       </c>
       <c r="AC17" t="n">
-        <v>382.2777015295309</v>
+        <v>478.085307423098</v>
       </c>
       <c r="AD17" t="n">
-        <v>308871.1347644627</v>
+        <v>386281.3625465469</v>
       </c>
       <c r="AE17" t="n">
-        <v>422611.1130174994</v>
+        <v>528527.201767171</v>
       </c>
       <c r="AF17" t="n">
         <v>1.166460362886408e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.72083333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>382277.7015295309</v>
+        <v>478085.307423098</v>
       </c>
     </row>
   </sheetData>
@@ -10343,28 +10343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>424.8201229221763</v>
+        <v>527.5947714139021</v>
       </c>
       <c r="AB2" t="n">
-        <v>581.2576339232202</v>
+        <v>721.8784420870901</v>
       </c>
       <c r="AC2" t="n">
-        <v>525.7832211418003</v>
+        <v>652.9833767370542</v>
       </c>
       <c r="AD2" t="n">
-        <v>424820.1229221763</v>
+        <v>527594.7714139021</v>
       </c>
       <c r="AE2" t="n">
-        <v>581257.6339232202</v>
+        <v>721878.4420870901</v>
       </c>
       <c r="AF2" t="n">
         <v>1.170195627323961e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.48333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>525783.2211418003</v>
+        <v>652983.3767370542</v>
       </c>
     </row>
     <row r="3">
@@ -10449,28 +10449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>309.4371663608466</v>
+        <v>393.6023365996045</v>
       </c>
       <c r="AB3" t="n">
-        <v>423.3855824192234</v>
+        <v>538.5440814451449</v>
       </c>
       <c r="AC3" t="n">
-        <v>382.9782566585289</v>
+        <v>487.1461901633851</v>
       </c>
       <c r="AD3" t="n">
-        <v>309437.1663608466</v>
+        <v>393602.3365996045</v>
       </c>
       <c r="AE3" t="n">
-        <v>423385.5824192234</v>
+        <v>538544.081445145</v>
       </c>
       <c r="AF3" t="n">
         <v>1.448865683798926e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.54583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>382978.2566585289</v>
+        <v>487146.1901633851</v>
       </c>
     </row>
     <row r="4">
@@ -10555,28 +10555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>278.5076580966914</v>
+        <v>353.2500267880183</v>
       </c>
       <c r="AB4" t="n">
-        <v>381.0664646986042</v>
+        <v>483.3322709426655</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.6980161379109</v>
+        <v>437.2037173649996</v>
       </c>
       <c r="AD4" t="n">
-        <v>278507.6580966914</v>
+        <v>353250.0267880183</v>
       </c>
       <c r="AE4" t="n">
-        <v>381066.4646986042</v>
+        <v>483332.2709426655</v>
       </c>
       <c r="AF4" t="n">
         <v>1.547585299181057e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.4875</v>
       </c>
       <c r="AH4" t="n">
-        <v>344698.0161379109</v>
+        <v>437203.7173649996</v>
       </c>
     </row>
     <row r="5">
@@ -10661,28 +10661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>267.1435873410165</v>
+        <v>332.5988051301786</v>
       </c>
       <c r="AB5" t="n">
-        <v>365.5176417432715</v>
+        <v>455.0763584028095</v>
       </c>
       <c r="AC5" t="n">
-        <v>330.6331510225251</v>
+        <v>411.6445094605251</v>
       </c>
       <c r="AD5" t="n">
-        <v>267143.5873410165</v>
+        <v>332598.8051301786</v>
       </c>
       <c r="AE5" t="n">
-        <v>365517.6417432715</v>
+        <v>455076.3584028095</v>
       </c>
       <c r="AF5" t="n">
         <v>1.593435843155158e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.04166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>330633.1510225251</v>
+        <v>411644.5094605251</v>
       </c>
     </row>
     <row r="6">
@@ -10767,28 +10767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>256.6370999536456</v>
+        <v>331.4467884526801</v>
       </c>
       <c r="AB6" t="n">
-        <v>351.1422021861941</v>
+        <v>453.5001183612673</v>
       </c>
       <c r="AC6" t="n">
-        <v>317.6296832408247</v>
+        <v>410.2187035562808</v>
       </c>
       <c r="AD6" t="n">
-        <v>256637.0999536456</v>
+        <v>331446.7884526801</v>
       </c>
       <c r="AE6" t="n">
-        <v>351142.2021861941</v>
+        <v>453500.1183612673</v>
       </c>
       <c r="AF6" t="n">
         <v>1.6011447175498e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.97083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>317629.6832408247</v>
+        <v>410218.7035562808</v>
       </c>
     </row>
   </sheetData>
@@ -11064,28 +11064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>573.2188931981563</v>
+        <v>687.0097347399029</v>
       </c>
       <c r="AB2" t="n">
-        <v>784.303378306504</v>
+        <v>939.9970278015498</v>
       </c>
       <c r="AC2" t="n">
-        <v>709.4505646576355</v>
+        <v>850.2850307622838</v>
       </c>
       <c r="AD2" t="n">
-        <v>573218.8931981563</v>
+        <v>687009.7347399029</v>
       </c>
       <c r="AE2" t="n">
-        <v>784303.378306504</v>
+        <v>939997.0278015499</v>
       </c>
       <c r="AF2" t="n">
         <v>8.796218238307712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>709450.5646576355</v>
+        <v>850285.0307622838</v>
       </c>
     </row>
     <row r="3">
@@ -11170,28 +11170,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>371.4070041166353</v>
+        <v>456.7501352729452</v>
       </c>
       <c r="AB3" t="n">
-        <v>508.1754483529851</v>
+        <v>624.9456854742696</v>
       </c>
       <c r="AC3" t="n">
-        <v>459.6758967908968</v>
+        <v>565.3017463693827</v>
       </c>
       <c r="AD3" t="n">
-        <v>371407.0041166353</v>
+        <v>456750.1352729452</v>
       </c>
       <c r="AE3" t="n">
-        <v>508175.4483529851</v>
+        <v>624945.6854742696</v>
       </c>
       <c r="AF3" t="n">
         <v>1.179637831029961e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.59583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>459675.8967908968</v>
+        <v>565301.7463693827</v>
       </c>
     </row>
     <row r="4">
@@ -11276,28 +11276,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>331.7947437245559</v>
+        <v>407.5879849446826</v>
       </c>
       <c r="AB4" t="n">
-        <v>453.9762061149511</v>
+        <v>557.67986251414</v>
       </c>
       <c r="AC4" t="n">
-        <v>410.6493541629464</v>
+        <v>504.4556791443927</v>
       </c>
       <c r="AD4" t="n">
-        <v>331794.7437245559</v>
+        <v>407587.9849446826</v>
       </c>
       <c r="AE4" t="n">
-        <v>453976.2061149511</v>
+        <v>557679.8625141401</v>
       </c>
       <c r="AF4" t="n">
         <v>1.280872059962003e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.20833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>410649.3541629464</v>
+        <v>504455.6791443927</v>
       </c>
     </row>
     <row r="5">
@@ -11382,28 +11382,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>307.5877396126069</v>
+        <v>383.448300640438</v>
       </c>
       <c r="AB5" t="n">
-        <v>420.8551151513322</v>
+        <v>524.6508814813627</v>
       </c>
       <c r="AC5" t="n">
-        <v>380.6892936351522</v>
+        <v>474.5789377049176</v>
       </c>
       <c r="AD5" t="n">
-        <v>307587.7396126069</v>
+        <v>383448.300640438</v>
       </c>
       <c r="AE5" t="n">
-        <v>420855.1151513322</v>
+        <v>524650.8814813627</v>
       </c>
       <c r="AF5" t="n">
         <v>1.333033594259172e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.57083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>380689.2936351522</v>
+        <v>474578.9377049176</v>
       </c>
     </row>
     <row r="6">
@@ -11488,28 +11488,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>298.1348396952003</v>
+        <v>373.8939154965462</v>
       </c>
       <c r="AB6" t="n">
-        <v>407.9212404518249</v>
+        <v>511.5781502177661</v>
       </c>
       <c r="AC6" t="n">
-        <v>368.9898097841586</v>
+        <v>462.7538495654251</v>
       </c>
       <c r="AD6" t="n">
-        <v>298134.8396952003</v>
+        <v>373893.9154965462</v>
       </c>
       <c r="AE6" t="n">
-        <v>407921.2404518249</v>
+        <v>511578.1502177661</v>
       </c>
       <c r="AF6" t="n">
         <v>1.363722710903925e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.22083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>368989.8097841587</v>
+        <v>462753.8495654251</v>
       </c>
     </row>
     <row r="7">
@@ -11594,28 +11594,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>281.3529200239103</v>
+        <v>357.1793156329605</v>
       </c>
       <c r="AB7" t="n">
-        <v>384.9594775915223</v>
+        <v>488.708497288305</v>
       </c>
       <c r="AC7" t="n">
-        <v>348.2194853442068</v>
+        <v>442.0668442137923</v>
       </c>
       <c r="AD7" t="n">
-        <v>281352.9200239102</v>
+        <v>357179.3156329605</v>
       </c>
       <c r="AE7" t="n">
-        <v>384959.4775915223</v>
+        <v>488708.497288305</v>
       </c>
       <c r="AF7" t="n">
         <v>1.384846388594469e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.99166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>348219.4853442068</v>
+        <v>442066.8442137922</v>
       </c>
     </row>
     <row r="8">
@@ -11700,28 +11700,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>275.6327033631497</v>
+        <v>351.4590989722</v>
       </c>
       <c r="AB8" t="n">
-        <v>377.1328247981212</v>
+        <v>480.8818444949039</v>
       </c>
       <c r="AC8" t="n">
-        <v>341.1397973086317</v>
+        <v>434.9871561782172</v>
       </c>
       <c r="AD8" t="n">
-        <v>275632.7033631497</v>
+        <v>351459.0989722</v>
       </c>
       <c r="AE8" t="n">
-        <v>377132.8247981212</v>
+        <v>480881.8444949039</v>
       </c>
       <c r="AF8" t="n">
         <v>1.398048687151059e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.85</v>
       </c>
       <c r="AH8" t="n">
-        <v>341139.7973086317</v>
+        <v>434987.1561782171</v>
       </c>
     </row>
     <row r="9">
@@ -11806,28 +11806,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>275.6833856224134</v>
+        <v>351.5097812314636</v>
       </c>
       <c r="AB9" t="n">
-        <v>377.2021705011892</v>
+        <v>480.9511901979719</v>
       </c>
       <c r="AC9" t="n">
-        <v>341.2025247551263</v>
+        <v>435.0498836247117</v>
       </c>
       <c r="AD9" t="n">
-        <v>275683.3856224134</v>
+        <v>351509.7812314637</v>
       </c>
       <c r="AE9" t="n">
-        <v>377202.1705011892</v>
+        <v>480951.1901979719</v>
       </c>
       <c r="AF9" t="n">
         <v>1.400639326867824e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.82083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>341202.5247551263</v>
+        <v>435049.8836247117</v>
       </c>
     </row>
   </sheetData>
@@ -12103,28 +12103,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>336.944366598202</v>
+        <v>429.4226330911931</v>
       </c>
       <c r="AB2" t="n">
-        <v>461.0221473160008</v>
+        <v>587.554991384887</v>
       </c>
       <c r="AC2" t="n">
-        <v>417.0228406248086</v>
+        <v>531.4795676457223</v>
       </c>
       <c r="AD2" t="n">
-        <v>336944.366598202</v>
+        <v>429422.633091193</v>
       </c>
       <c r="AE2" t="n">
-        <v>461022.1473160008</v>
+        <v>587554.991384887</v>
       </c>
       <c r="AF2" t="n">
         <v>1.480780197519223e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>417022.8406248086</v>
+        <v>531479.5676457223</v>
       </c>
     </row>
     <row r="3">
@@ -12209,28 +12209,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.2444636287934</v>
+        <v>335.2544091582108</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.4462004292372</v>
+        <v>458.7098729909443</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.3320367391632</v>
+        <v>414.9312465160381</v>
       </c>
       <c r="AD3" t="n">
-        <v>261244.4636287934</v>
+        <v>335254.4091582108</v>
       </c>
       <c r="AE3" t="n">
-        <v>357446.2004292372</v>
+        <v>458709.8729909444</v>
       </c>
       <c r="AF3" t="n">
         <v>1.742699001645905e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.75416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>323332.0367391632</v>
+        <v>414931.2465160381</v>
       </c>
     </row>
     <row r="4">
@@ -12315,28 +12315,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>251.7811121293602</v>
+        <v>325.6895724322956</v>
       </c>
       <c r="AB4" t="n">
-        <v>344.4980254139471</v>
+        <v>445.6228414117319</v>
       </c>
       <c r="AC4" t="n">
-        <v>311.6196173745581</v>
+        <v>403.0932228629816</v>
       </c>
       <c r="AD4" t="n">
-        <v>251781.1121293602</v>
+        <v>325689.5724322955</v>
       </c>
       <c r="AE4" t="n">
-        <v>344498.0254139471</v>
+        <v>445622.841411732</v>
       </c>
       <c r="AF4" t="n">
         <v>1.799761060607843e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.25416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>311619.6173745581</v>
+        <v>403093.2228629816</v>
       </c>
     </row>
     <row r="5">
@@ -12421,28 +12421,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>252.6773036055013</v>
+        <v>326.5857639084367</v>
       </c>
       <c r="AB5" t="n">
-        <v>345.7242341287803</v>
+        <v>446.8490501265658</v>
       </c>
       <c r="AC5" t="n">
-        <v>312.7287984506428</v>
+        <v>404.2024039390664</v>
       </c>
       <c r="AD5" t="n">
-        <v>252677.3036055013</v>
+        <v>326585.7639084366</v>
       </c>
       <c r="AE5" t="n">
-        <v>345724.2341287803</v>
+        <v>446849.0501265659</v>
       </c>
       <c r="AF5" t="n">
         <v>1.800090518223097e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>312728.7984506428</v>
+        <v>404202.4039390663</v>
       </c>
     </row>
   </sheetData>
@@ -12718,28 +12718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1134.226140882425</v>
+        <v>1299.277928762481</v>
       </c>
       <c r="AB2" t="n">
-        <v>1551.898244481129</v>
+        <v>1777.729382229594</v>
       </c>
       <c r="AC2" t="n">
-        <v>1403.787254130715</v>
+        <v>1608.065385048459</v>
       </c>
       <c r="AD2" t="n">
-        <v>1134226.140882425</v>
+        <v>1299277.928762481</v>
       </c>
       <c r="AE2" t="n">
-        <v>1551898.244481129</v>
+        <v>1777729.382229594</v>
       </c>
       <c r="AF2" t="n">
         <v>4.994587297242746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.55416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1403787.254130715</v>
+        <v>1608065.385048459</v>
       </c>
     </row>
     <row r="3">
@@ -12824,28 +12824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>534.3129746276345</v>
+        <v>631.3349418081979</v>
       </c>
       <c r="AB3" t="n">
-        <v>731.0705841103269</v>
+        <v>863.8203199138766</v>
       </c>
       <c r="AC3" t="n">
-        <v>661.2982336268457</v>
+        <v>781.3785209607289</v>
       </c>
       <c r="AD3" t="n">
-        <v>534312.9746276345</v>
+        <v>631334.9418081979</v>
       </c>
       <c r="AE3" t="n">
-        <v>731070.5841103268</v>
+        <v>863820.3199138766</v>
       </c>
       <c r="AF3" t="n">
         <v>8.21906840225121e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.39166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>661298.2336268456</v>
+        <v>781378.5209607289</v>
       </c>
     </row>
     <row r="4">
@@ -12930,28 +12930,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>437.9659782661066</v>
+        <v>534.9869344168127</v>
       </c>
       <c r="AB4" t="n">
-        <v>599.2443731589923</v>
+        <v>731.9927256268877</v>
       </c>
       <c r="AC4" t="n">
-        <v>542.0533312294573</v>
+        <v>662.1323672512998</v>
       </c>
       <c r="AD4" t="n">
-        <v>437965.9782661066</v>
+        <v>534986.9344168127</v>
       </c>
       <c r="AE4" t="n">
-        <v>599244.3731589923</v>
+        <v>731992.7256268878</v>
       </c>
       <c r="AF4" t="n">
         <v>9.35851644646837e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.90833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>542053.3312294573</v>
+        <v>662132.3672512998</v>
       </c>
     </row>
     <row r="5">
@@ -13036,28 +13036,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>400.5128324711388</v>
+        <v>487.8590253417988</v>
       </c>
       <c r="AB5" t="n">
-        <v>547.9993267661393</v>
+        <v>667.5102412938436</v>
       </c>
       <c r="AC5" t="n">
-        <v>495.699040141464</v>
+        <v>603.8040007212661</v>
       </c>
       <c r="AD5" t="n">
-        <v>400512.8324711388</v>
+        <v>487859.0253417988</v>
       </c>
       <c r="AE5" t="n">
-        <v>547999.3267661394</v>
+        <v>667510.2412938436</v>
       </c>
       <c r="AF5" t="n">
         <v>9.958606980168337e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.82916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>495699.040141464</v>
+        <v>603804.0007212661</v>
       </c>
     </row>
     <row r="6">
@@ -13142,28 +13142,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>384.9046594720746</v>
+        <v>462.5087692549843</v>
       </c>
       <c r="AB6" t="n">
-        <v>526.6435358848249</v>
+        <v>632.8249025414963</v>
       </c>
       <c r="AC6" t="n">
-        <v>476.3814159688214</v>
+        <v>572.4289820182643</v>
       </c>
       <c r="AD6" t="n">
-        <v>384904.6594720746</v>
+        <v>462508.7692549843</v>
       </c>
       <c r="AE6" t="n">
-        <v>526643.5358848249</v>
+        <v>632824.9025414963</v>
       </c>
       <c r="AF6" t="n">
         <v>1.032903820103809e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.225</v>
       </c>
       <c r="AH6" t="n">
-        <v>476381.4159688214</v>
+        <v>572428.9820182642</v>
       </c>
     </row>
     <row r="7">
@@ -13248,28 +13248,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>364.8437031230271</v>
+        <v>452.1557305749064</v>
       </c>
       <c r="AB7" t="n">
-        <v>499.1952503811262</v>
+        <v>618.6594182755827</v>
       </c>
       <c r="AC7" t="n">
-        <v>451.5527563096849</v>
+        <v>559.6154316893072</v>
       </c>
       <c r="AD7" t="n">
-        <v>364843.7031230271</v>
+        <v>452155.7305749065</v>
       </c>
       <c r="AE7" t="n">
-        <v>499195.2503811262</v>
+        <v>618659.4182755826</v>
       </c>
       <c r="AF7" t="n">
         <v>1.057518793738151e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.84583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>451552.7563096849</v>
+        <v>559615.4316893072</v>
       </c>
     </row>
     <row r="8">
@@ -13354,28 +13354,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>357.5373962830777</v>
+        <v>435.2088258736919</v>
       </c>
       <c r="AB8" t="n">
-        <v>489.1984390311987</v>
+        <v>595.4719156187116</v>
       </c>
       <c r="AC8" t="n">
-        <v>442.5100266043817</v>
+        <v>538.6409117421435</v>
       </c>
       <c r="AD8" t="n">
-        <v>357537.3962830777</v>
+        <v>435208.8258736919</v>
       </c>
       <c r="AE8" t="n">
-        <v>489198.4390311987</v>
+        <v>595471.9156187116</v>
       </c>
       <c r="AF8" t="n">
         <v>1.074773407609282e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.59166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>442510.0266043817</v>
+        <v>538640.9117421436</v>
       </c>
     </row>
     <row r="9">
@@ -13460,28 +13460,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>351.8894854462546</v>
+        <v>429.4594298103835</v>
       </c>
       <c r="AB9" t="n">
-        <v>481.4707182560165</v>
+        <v>587.6053382794402</v>
       </c>
       <c r="AC9" t="n">
-        <v>435.5198286540588</v>
+        <v>531.5251095033216</v>
       </c>
       <c r="AD9" t="n">
-        <v>351889.4854462546</v>
+        <v>429459.4298103835</v>
       </c>
       <c r="AE9" t="n">
-        <v>481470.7182560166</v>
+        <v>587605.3382794402</v>
       </c>
       <c r="AF9" t="n">
         <v>1.088448392961694e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.39583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>435519.8286540587</v>
+        <v>531525.1095033216</v>
       </c>
     </row>
     <row r="10">
@@ -13566,28 +13566,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>346.4206732524575</v>
+        <v>423.9906176165865</v>
       </c>
       <c r="AB10" t="n">
-        <v>473.9880481454972</v>
+        <v>580.1226681689208</v>
       </c>
       <c r="AC10" t="n">
-        <v>428.7512940768939</v>
+        <v>524.7565749261568</v>
       </c>
       <c r="AD10" t="n">
-        <v>346420.6732524575</v>
+        <v>423990.6176165864</v>
       </c>
       <c r="AE10" t="n">
-        <v>473988.0481454972</v>
+        <v>580122.6681689208</v>
       </c>
       <c r="AF10" t="n">
         <v>1.10051455650794e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.22916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>428751.2940768939</v>
+        <v>524756.5749261568</v>
       </c>
     </row>
     <row r="11">
@@ -13672,28 +13672,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>341.7843810347243</v>
+        <v>409.7137275375881</v>
       </c>
       <c r="AB11" t="n">
-        <v>467.6444685944177</v>
+        <v>560.5883973108977</v>
       </c>
       <c r="AC11" t="n">
-        <v>423.0131368548996</v>
+        <v>507.086627462302</v>
       </c>
       <c r="AD11" t="n">
-        <v>341784.3810347243</v>
+        <v>409713.7275375881</v>
       </c>
       <c r="AE11" t="n">
-        <v>467644.4685944177</v>
+        <v>560588.3973108977</v>
       </c>
       <c r="AF11" t="n">
         <v>1.107794475180842e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.12916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>423013.1368548996</v>
+        <v>507086.627462302</v>
       </c>
     </row>
     <row r="12">
@@ -13778,28 +13778,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>338.0164347425643</v>
+        <v>405.9457812454281</v>
       </c>
       <c r="AB12" t="n">
-        <v>462.4889982474259</v>
+        <v>555.4329269639061</v>
       </c>
       <c r="AC12" t="n">
-        <v>418.3496973620766</v>
+        <v>502.423187969479</v>
       </c>
       <c r="AD12" t="n">
-        <v>338016.4347425643</v>
+        <v>405945.7812454281</v>
       </c>
       <c r="AE12" t="n">
-        <v>462488.9982474258</v>
+        <v>555432.926963906</v>
       </c>
       <c r="AF12" t="n">
         <v>1.115798363666519e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.02083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>418349.6973620766</v>
+        <v>502423.1879694791</v>
       </c>
     </row>
     <row r="13">
@@ -13884,28 +13884,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>324.075660407065</v>
+        <v>401.7129245788984</v>
       </c>
       <c r="AB13" t="n">
-        <v>443.4146157780382</v>
+        <v>549.6413457323033</v>
       </c>
       <c r="AC13" t="n">
-        <v>401.0957471845033</v>
+        <v>497.1843471220852</v>
       </c>
       <c r="AD13" t="n">
-        <v>324075.660407065</v>
+        <v>401712.9245788984</v>
       </c>
       <c r="AE13" t="n">
-        <v>443414.6157780382</v>
+        <v>549641.3457323033</v>
       </c>
       <c r="AF13" t="n">
         <v>1.123520708336116e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.91666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>401095.7471845033</v>
+        <v>497184.3471220852</v>
       </c>
     </row>
     <row r="14">
@@ -13990,28 +13990,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>320.5754404501043</v>
+        <v>398.2127046219376</v>
       </c>
       <c r="AB14" t="n">
-        <v>438.6254604141183</v>
+        <v>544.8521903683834</v>
       </c>
       <c r="AC14" t="n">
-        <v>396.7636620868942</v>
+        <v>492.8522620244762</v>
       </c>
       <c r="AD14" t="n">
-        <v>320575.4404501043</v>
+        <v>398212.7046219376</v>
       </c>
       <c r="AE14" t="n">
-        <v>438625.4604141183</v>
+        <v>544852.1903683834</v>
       </c>
       <c r="AF14" t="n">
         <v>1.128950481931927e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.84583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>396763.6620868942</v>
+        <v>492852.2620244762</v>
       </c>
     </row>
     <row r="15">
@@ -14096,28 +14096,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>318.3934875241096</v>
+        <v>396.030751695943</v>
       </c>
       <c r="AB15" t="n">
-        <v>435.640016159803</v>
+        <v>541.8667461140682</v>
       </c>
       <c r="AC15" t="n">
-        <v>394.0631444421135</v>
+        <v>490.1517443796954</v>
       </c>
       <c r="AD15" t="n">
-        <v>318393.4875241096</v>
+        <v>396030.7516959429</v>
       </c>
       <c r="AE15" t="n">
-        <v>435640.016159803</v>
+        <v>541866.7461140682</v>
       </c>
       <c r="AF15" t="n">
         <v>1.130519083192939e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.825</v>
       </c>
       <c r="AH15" t="n">
-        <v>394063.1444421135</v>
+        <v>490151.7443796954</v>
       </c>
     </row>
     <row r="16">
@@ -14202,28 +14202,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>314.5927656123703</v>
+        <v>392.2300297842036</v>
       </c>
       <c r="AB16" t="n">
-        <v>430.4397007641446</v>
+        <v>536.6664307184096</v>
       </c>
       <c r="AC16" t="n">
-        <v>389.3591398491281</v>
+        <v>485.44773978671</v>
       </c>
       <c r="AD16" t="n">
-        <v>314592.7656123703</v>
+        <v>392230.0297842036</v>
       </c>
       <c r="AE16" t="n">
-        <v>430439.7007641445</v>
+        <v>536666.4307184096</v>
       </c>
       <c r="AF16" t="n">
         <v>1.136069518424212e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.75</v>
       </c>
       <c r="AH16" t="n">
-        <v>389359.1398491281</v>
+        <v>485447.73978671</v>
       </c>
     </row>
     <row r="17">
@@ -14308,28 +14308,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>313.5670031928931</v>
+        <v>391.2042673647264</v>
       </c>
       <c r="AB17" t="n">
-        <v>429.0362073683718</v>
+        <v>535.2629373226368</v>
       </c>
       <c r="AC17" t="n">
-        <v>388.0895938932325</v>
+        <v>484.1781938308145</v>
       </c>
       <c r="AD17" t="n">
-        <v>313567.0031928931</v>
+        <v>391204.2673647264</v>
       </c>
       <c r="AE17" t="n">
-        <v>429036.2073683718</v>
+        <v>535262.9373226368</v>
       </c>
       <c r="AF17" t="n">
         <v>1.135948856788749e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.75416666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>388089.5938932325</v>
+        <v>484178.1938308144</v>
       </c>
     </row>
     <row r="18">
@@ -14414,28 +14414,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>313.799972160817</v>
+        <v>391.4372363326504</v>
       </c>
       <c r="AB18" t="n">
-        <v>429.3549657881508</v>
+        <v>535.5816957424159</v>
       </c>
       <c r="AC18" t="n">
-        <v>388.3779304568081</v>
+        <v>484.4665303943901</v>
       </c>
       <c r="AD18" t="n">
-        <v>313799.9721608171</v>
+        <v>391437.2363326504</v>
       </c>
       <c r="AE18" t="n">
-        <v>429354.9657881508</v>
+        <v>535581.695742416</v>
       </c>
       <c r="AF18" t="n">
         <v>1.138120766227074e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.725</v>
       </c>
       <c r="AH18" t="n">
-        <v>388377.9304568081</v>
+        <v>484466.5303943901</v>
       </c>
     </row>
   </sheetData>
@@ -14711,28 +14711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>294.3452496462287</v>
+        <v>377.0509149143851</v>
       </c>
       <c r="AB2" t="n">
-        <v>402.7361561619081</v>
+        <v>515.8976960982379</v>
       </c>
       <c r="AC2" t="n">
-        <v>364.2995826615601</v>
+        <v>466.6611440495853</v>
       </c>
       <c r="AD2" t="n">
-        <v>294345.2496462287</v>
+        <v>377050.9149143851</v>
       </c>
       <c r="AE2" t="n">
-        <v>402736.1561619081</v>
+        <v>515897.6960982379</v>
       </c>
       <c r="AF2" t="n">
         <v>1.710800551761104e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.55833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>364299.5826615601</v>
+        <v>466661.1440495853</v>
       </c>
     </row>
     <row r="3">
@@ -14817,28 +14817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.4553806224889</v>
+        <v>316.9715275275199</v>
       </c>
       <c r="AB3" t="n">
-        <v>333.1063922609005</v>
+        <v>433.6944277600214</v>
       </c>
       <c r="AC3" t="n">
-        <v>301.3151857013771</v>
+        <v>392.3032402685565</v>
       </c>
       <c r="AD3" t="n">
-        <v>243455.3806224889</v>
+        <v>316971.5275275199</v>
       </c>
       <c r="AE3" t="n">
-        <v>333106.3922609005</v>
+        <v>433694.4277600214</v>
       </c>
       <c r="AF3" t="n">
         <v>1.935528324521834e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>301315.185701377</v>
+        <v>392303.2402685565</v>
       </c>
     </row>
     <row r="4">
@@ -14923,28 +14923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>243.9255650525063</v>
+        <v>317.3402267310521</v>
       </c>
       <c r="AB4" t="n">
-        <v>333.7497193411231</v>
+        <v>434.198898276155</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.8971145479787</v>
+        <v>392.7595648266592</v>
       </c>
       <c r="AD4" t="n">
-        <v>243925.5650525063</v>
+        <v>317340.2267310521</v>
       </c>
       <c r="AE4" t="n">
-        <v>333749.7193411231</v>
+        <v>434198.8982761551</v>
       </c>
       <c r="AF4" t="n">
         <v>1.938772710076608e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.49583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>301897.1145479787</v>
+        <v>392759.5648266592</v>
       </c>
     </row>
   </sheetData>
@@ -15220,28 +15220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>767.6055384568074</v>
+        <v>901.7422662006248</v>
       </c>
       <c r="AB2" t="n">
-        <v>1050.271762082934</v>
+        <v>1233.803550676803</v>
       </c>
       <c r="AC2" t="n">
-        <v>950.0352991754143</v>
+        <v>1116.051071454368</v>
       </c>
       <c r="AD2" t="n">
-        <v>767605.5384568074</v>
+        <v>901742.2662006249</v>
       </c>
       <c r="AE2" t="n">
-        <v>1050271.762082934</v>
+        <v>1233803.550676803</v>
       </c>
       <c r="AF2" t="n">
         <v>6.850275143994791e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.25833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>950035.2991754143</v>
+        <v>1116051.071454368</v>
       </c>
     </row>
     <row r="3">
@@ -15326,28 +15326,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>435.2781590630713</v>
+        <v>531.128431480221</v>
       </c>
       <c r="AB3" t="n">
-        <v>595.5667803471849</v>
+        <v>726.7133516839075</v>
       </c>
       <c r="AC3" t="n">
-        <v>538.7267227140749</v>
+        <v>657.3568493477895</v>
       </c>
       <c r="AD3" t="n">
-        <v>435278.1590630712</v>
+        <v>531128.431480221</v>
       </c>
       <c r="AE3" t="n">
-        <v>595566.780347185</v>
+        <v>726713.3516839074</v>
       </c>
       <c r="AF3" t="n">
         <v>9.969088668826964e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.73333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>538726.7227140749</v>
+        <v>657356.8493477895</v>
       </c>
     </row>
     <row r="4">
@@ -15432,28 +15432,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>373.5491358311183</v>
+        <v>459.8109644646751</v>
       </c>
       <c r="AB4" t="n">
-        <v>511.1064074689224</v>
+        <v>629.1336470086479</v>
       </c>
       <c r="AC4" t="n">
-        <v>462.3271292824359</v>
+        <v>569.0900147327611</v>
       </c>
       <c r="AD4" t="n">
-        <v>373549.1358311183</v>
+        <v>459810.9644646751</v>
       </c>
       <c r="AE4" t="n">
-        <v>511106.4074689224</v>
+        <v>629133.6470086479</v>
       </c>
       <c r="AF4" t="n">
         <v>1.10204949814087e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.94583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>462327.1292824359</v>
+        <v>569090.0147327611</v>
       </c>
     </row>
     <row r="5">
@@ -15538,28 +15538,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>352.9643358408634</v>
+        <v>429.6045663019034</v>
       </c>
       <c r="AB5" t="n">
-        <v>482.9413759849731</v>
+        <v>587.803920430108</v>
       </c>
       <c r="AC5" t="n">
-        <v>436.8501288734448</v>
+        <v>531.7047392522413</v>
       </c>
       <c r="AD5" t="n">
-        <v>352964.3358408635</v>
+        <v>429604.5663019035</v>
       </c>
       <c r="AE5" t="n">
-        <v>482941.3759849732</v>
+        <v>587803.920430108</v>
       </c>
       <c r="AF5" t="n">
         <v>1.161342360525594e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.07916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>436850.1288734448</v>
+        <v>531704.7392522413</v>
       </c>
     </row>
     <row r="6">
@@ -15644,28 +15644,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>332.0417250711752</v>
+        <v>408.7492753399196</v>
       </c>
       <c r="AB6" t="n">
-        <v>454.3141368894434</v>
+        <v>559.2687912654197</v>
       </c>
       <c r="AC6" t="n">
-        <v>410.9550332986101</v>
+        <v>505.8929627657257</v>
       </c>
       <c r="AD6" t="n">
-        <v>332041.7250711752</v>
+        <v>408749.2753399196</v>
       </c>
       <c r="AE6" t="n">
-        <v>454314.1368894434</v>
+        <v>559268.7912654197</v>
       </c>
       <c r="AF6" t="n">
         <v>1.194103571714735e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.6375</v>
       </c>
       <c r="AH6" t="n">
-        <v>410955.0332986101</v>
+        <v>505892.9627657257</v>
       </c>
     </row>
     <row r="7">
@@ -15750,28 +15750,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>324.2016860097055</v>
+        <v>400.8077510519647</v>
       </c>
       <c r="AB7" t="n">
-        <v>443.5870495674281</v>
+        <v>548.4028473793149</v>
       </c>
       <c r="AC7" t="n">
-        <v>401.2517241350462</v>
+        <v>496.0640493136628</v>
       </c>
       <c r="AD7" t="n">
-        <v>324201.6860097055</v>
+        <v>400807.7510519646</v>
       </c>
       <c r="AE7" t="n">
-        <v>443587.0495674281</v>
+        <v>548402.8473793149</v>
       </c>
       <c r="AF7" t="n">
         <v>1.215750172267888e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.35833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>401251.7241350462</v>
+        <v>496064.0493136628</v>
       </c>
     </row>
     <row r="8">
@@ -15856,28 +15856,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>317.7871566490028</v>
+        <v>384.8731087452306</v>
       </c>
       <c r="AB8" t="n">
-        <v>434.8104075070517</v>
+        <v>526.6003667884372</v>
       </c>
       <c r="AC8" t="n">
-        <v>393.3127124748177</v>
+        <v>476.3423668704047</v>
       </c>
       <c r="AD8" t="n">
-        <v>317787.1566490029</v>
+        <v>384873.1087452306</v>
       </c>
       <c r="AE8" t="n">
-        <v>434810.4075070517</v>
+        <v>526600.3667884372</v>
       </c>
       <c r="AF8" t="n">
         <v>1.232735807070466e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.15</v>
       </c>
       <c r="AH8" t="n">
-        <v>393312.7124748176</v>
+        <v>476342.3668704047</v>
       </c>
     </row>
     <row r="9">
@@ -15962,28 +15962,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>302.7013067096966</v>
+        <v>379.3746915596601</v>
       </c>
       <c r="AB9" t="n">
-        <v>414.169282079365</v>
+        <v>519.0771898220934</v>
       </c>
       <c r="AC9" t="n">
-        <v>374.6415470879479</v>
+        <v>469.5371913548835</v>
       </c>
       <c r="AD9" t="n">
-        <v>302701.3067096965</v>
+        <v>379374.6915596601</v>
       </c>
       <c r="AE9" t="n">
-        <v>414169.282079365</v>
+        <v>519077.1898220934</v>
       </c>
       <c r="AF9" t="n">
         <v>1.245956815689887e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.9875</v>
       </c>
       <c r="AH9" t="n">
-        <v>374641.5470879479</v>
+        <v>469537.1913548835</v>
       </c>
     </row>
     <row r="10">
@@ -16068,28 +16068,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>296.8488079519874</v>
+        <v>373.522192801951</v>
       </c>
       <c r="AB10" t="n">
-        <v>406.1616350850446</v>
+        <v>511.069542827773</v>
       </c>
       <c r="AC10" t="n">
-        <v>367.3981386839623</v>
+        <v>462.2937829508979</v>
       </c>
       <c r="AD10" t="n">
-        <v>296848.8079519874</v>
+        <v>373522.192801951</v>
       </c>
       <c r="AE10" t="n">
-        <v>406161.6350850445</v>
+        <v>511069.542827773</v>
       </c>
       <c r="AF10" t="n">
         <v>1.255771733953118e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.87083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>367398.1386839623</v>
+        <v>462293.7829508979</v>
       </c>
     </row>
     <row r="11">
@@ -16174,28 +16174,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>293.4232796502311</v>
+        <v>370.0966645001947</v>
       </c>
       <c r="AB11" t="n">
-        <v>401.4746761389388</v>
+        <v>506.3825838816671</v>
       </c>
       <c r="AC11" t="n">
-        <v>363.1584965214846</v>
+        <v>458.0541407884202</v>
       </c>
       <c r="AD11" t="n">
-        <v>293423.2796502311</v>
+        <v>370096.6645001947</v>
       </c>
       <c r="AE11" t="n">
-        <v>401474.6761389388</v>
+        <v>506382.5838816671</v>
       </c>
       <c r="AF11" t="n">
         <v>1.263838790059883e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.775</v>
       </c>
       <c r="AH11" t="n">
-        <v>363158.4965214846</v>
+        <v>458054.1407884202</v>
       </c>
     </row>
     <row r="12">
@@ -16280,28 +16280,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>292.1403631379316</v>
+        <v>368.8137479878952</v>
       </c>
       <c r="AB12" t="n">
-        <v>399.7193331685285</v>
+        <v>504.6272409112568</v>
       </c>
       <c r="AC12" t="n">
-        <v>361.5706810205309</v>
+        <v>456.4663252874666</v>
       </c>
       <c r="AD12" t="n">
-        <v>292140.3631379316</v>
+        <v>368813.7479878952</v>
       </c>
       <c r="AE12" t="n">
-        <v>399719.3331685285</v>
+        <v>504627.2409112568</v>
       </c>
       <c r="AF12" t="n">
         <v>1.265272933367752e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.75833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>361570.6810205309</v>
+        <v>456466.3252874666</v>
       </c>
     </row>
     <row r="13">
@@ -16386,28 +16386,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>292.7190537924791</v>
+        <v>369.3924386424427</v>
       </c>
       <c r="AB13" t="n">
-        <v>400.5111232521103</v>
+        <v>505.4190309948387</v>
       </c>
       <c r="AC13" t="n">
-        <v>362.2869037698201</v>
+        <v>457.1825480367557</v>
       </c>
       <c r="AD13" t="n">
-        <v>292719.0537924791</v>
+        <v>369392.4386424427</v>
       </c>
       <c r="AE13" t="n">
-        <v>400511.1232521103</v>
+        <v>505419.0309948387</v>
       </c>
       <c r="AF13" t="n">
         <v>1.265362567324494e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.75833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>362286.9037698201</v>
+        <v>457182.5480367558</v>
       </c>
     </row>
   </sheetData>
@@ -16683,28 +16683,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>931.5117856609421</v>
+        <v>1076.210822354687</v>
       </c>
       <c r="AB2" t="n">
-        <v>1274.535520540917</v>
+        <v>1472.519126216261</v>
       </c>
       <c r="AC2" t="n">
-        <v>1152.895639282329</v>
+        <v>1331.983967503754</v>
       </c>
       <c r="AD2" t="n">
-        <v>931511.7856609421</v>
+        <v>1076210.822354687</v>
       </c>
       <c r="AE2" t="n">
-        <v>1274535.520540917</v>
+        <v>1472519.126216261</v>
       </c>
       <c r="AF2" t="n">
         <v>5.847160075549135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1152895.639282329</v>
+        <v>1331983.967503754</v>
       </c>
     </row>
     <row r="3">
@@ -16789,28 +16789,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>483.4154824801233</v>
+        <v>579.9263868144228</v>
       </c>
       <c r="AB3" t="n">
-        <v>661.4303899152237</v>
+        <v>793.4808669860137</v>
       </c>
       <c r="AC3" t="n">
-        <v>598.3044018250965</v>
+        <v>717.7521666982591</v>
       </c>
       <c r="AD3" t="n">
-        <v>483415.4824801233</v>
+        <v>579926.3868144228</v>
       </c>
       <c r="AE3" t="n">
-        <v>661430.3899152237</v>
+        <v>793480.8669860137</v>
       </c>
       <c r="AF3" t="n">
         <v>9.022444660057296e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.5375</v>
       </c>
       <c r="AH3" t="n">
-        <v>598304.4018250966</v>
+        <v>717752.1666982591</v>
       </c>
     </row>
     <row r="4">
@@ -16895,28 +16895,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>409.5793568804601</v>
+        <v>496.3376855548443</v>
       </c>
       <c r="AB4" t="n">
-        <v>560.4045454498001</v>
+        <v>679.1111182494218</v>
       </c>
       <c r="AC4" t="n">
-        <v>506.9203221647898</v>
+        <v>614.297706262137</v>
       </c>
       <c r="AD4" t="n">
-        <v>409579.3568804601</v>
+        <v>496337.6855548443</v>
       </c>
       <c r="AE4" t="n">
-        <v>560404.5454498001</v>
+        <v>679111.1182494218</v>
       </c>
       <c r="AF4" t="n">
         <v>1.013671319131156e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.3875</v>
       </c>
       <c r="AH4" t="n">
-        <v>506920.3221647898</v>
+        <v>614297.706262137</v>
       </c>
     </row>
     <row r="5">
@@ -17001,28 +17001,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>376.5947488192978</v>
+        <v>453.7361524790329</v>
       </c>
       <c r="AB5" t="n">
-        <v>515.2735495223114</v>
+        <v>620.821821248102</v>
       </c>
       <c r="AC5" t="n">
-        <v>466.0965651468702</v>
+        <v>561.5714579570811</v>
       </c>
       <c r="AD5" t="n">
-        <v>376594.7488192978</v>
+        <v>453736.1524790329</v>
       </c>
       <c r="AE5" t="n">
-        <v>515273.5495223115</v>
+        <v>620821.821248102</v>
       </c>
       <c r="AF5" t="n">
         <v>1.071499909952135e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.45</v>
       </c>
       <c r="AH5" t="n">
-        <v>466096.5651468702</v>
+        <v>561571.457957081</v>
       </c>
     </row>
     <row r="6">
@@ -17107,28 +17107,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>353.8880042849899</v>
+        <v>440.6794873482979</v>
       </c>
       <c r="AB6" t="n">
-        <v>484.2051798996028</v>
+        <v>602.9571159968182</v>
       </c>
       <c r="AC6" t="n">
-        <v>437.9933171162221</v>
+        <v>545.4117351017084</v>
       </c>
       <c r="AD6" t="n">
-        <v>353888.0042849899</v>
+        <v>440679.4873482978</v>
       </c>
       <c r="AE6" t="n">
-        <v>484205.1798996028</v>
+        <v>602957.1159968182</v>
       </c>
       <c r="AF6" t="n">
         <v>1.106230907072854e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.93333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>437993.3171162221</v>
+        <v>545411.7351017083</v>
       </c>
     </row>
     <row r="7">
@@ -17213,28 +17213,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>344.2262801923254</v>
+        <v>421.435003659765</v>
       </c>
       <c r="AB7" t="n">
-        <v>470.9855827508351</v>
+        <v>576.625964407467</v>
       </c>
       <c r="AC7" t="n">
-        <v>426.0353797655117</v>
+        <v>521.5935916640416</v>
       </c>
       <c r="AD7" t="n">
-        <v>344226.2801923254</v>
+        <v>421435.003659765</v>
       </c>
       <c r="AE7" t="n">
-        <v>470985.5827508351</v>
+        <v>576625.9644074671</v>
       </c>
       <c r="AF7" t="n">
         <v>1.131993607738528e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.57083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>426035.3797655117</v>
+        <v>521593.5916640416</v>
       </c>
     </row>
     <row r="8">
@@ -17319,28 +17319,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>337.636009115921</v>
+        <v>414.7432473568753</v>
       </c>
       <c r="AB8" t="n">
-        <v>461.9684831218582</v>
+        <v>567.4700082144011</v>
       </c>
       <c r="AC8" t="n">
-        <v>417.8788594695456</v>
+        <v>513.3114670795765</v>
       </c>
       <c r="AD8" t="n">
-        <v>337636.009115921</v>
+        <v>414743.2473568753</v>
       </c>
       <c r="AE8" t="n">
-        <v>461968.4831218582</v>
+        <v>567470.0082144011</v>
       </c>
       <c r="AF8" t="n">
         <v>1.147984249531015e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.35416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>417878.8594695456</v>
+        <v>513311.4670795765</v>
       </c>
     </row>
     <row r="9">
@@ -17425,28 +17425,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>331.7738792122401</v>
+        <v>399.298357857326</v>
       </c>
       <c r="AB9" t="n">
-        <v>453.9476583687231</v>
+        <v>546.3376290206825</v>
       </c>
       <c r="AC9" t="n">
-        <v>410.6235309735515</v>
+        <v>494.1959324966259</v>
       </c>
       <c r="AD9" t="n">
-        <v>331773.8792122401</v>
+        <v>399298.357857326</v>
       </c>
       <c r="AE9" t="n">
-        <v>453947.6583687231</v>
+        <v>546337.6290206824</v>
       </c>
       <c r="AF9" t="n">
         <v>1.162832702624039e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.15833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>410623.5309735514</v>
+        <v>494195.9324966259</v>
       </c>
     </row>
     <row r="10">
@@ -17531,28 +17531,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>327.164800482209</v>
+        <v>394.6892791272952</v>
       </c>
       <c r="AB10" t="n">
-        <v>447.641313512092</v>
+        <v>540.0312841640513</v>
       </c>
       <c r="AC10" t="n">
-        <v>404.9190548190266</v>
+        <v>488.4914563421011</v>
       </c>
       <c r="AD10" t="n">
-        <v>327164.8004822091</v>
+        <v>394689.2791272951</v>
       </c>
       <c r="AE10" t="n">
-        <v>447641.313512092</v>
+        <v>540031.2841640513</v>
       </c>
       <c r="AF10" t="n">
         <v>1.171970212219745e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.04166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>404919.0548190266</v>
+        <v>488491.4563421011</v>
       </c>
     </row>
     <row r="11">
@@ -17637,28 +17637,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>313.1909260436109</v>
+        <v>390.3654840922697</v>
       </c>
       <c r="AB11" t="n">
-        <v>428.5216420213711</v>
+        <v>534.1152770447552</v>
       </c>
       <c r="AC11" t="n">
-        <v>387.6241379407526</v>
+        <v>483.1400646391025</v>
       </c>
       <c r="AD11" t="n">
-        <v>313190.926043611</v>
+        <v>390365.4840922697</v>
       </c>
       <c r="AE11" t="n">
-        <v>428521.6420213711</v>
+        <v>534115.2770447552</v>
       </c>
       <c r="AF11" t="n">
         <v>1.178865647701691e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.95</v>
       </c>
       <c r="AH11" t="n">
-        <v>387624.1379407526</v>
+        <v>483140.0646391026</v>
       </c>
     </row>
     <row r="12">
@@ -17743,28 +17743,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>309.3554457599963</v>
+        <v>386.530003808655</v>
       </c>
       <c r="AB12" t="n">
-        <v>423.2737686878816</v>
+        <v>528.8674037112656</v>
       </c>
       <c r="AC12" t="n">
-        <v>382.8771142727748</v>
+        <v>478.3930409711248</v>
       </c>
       <c r="AD12" t="n">
-        <v>309355.4457599962</v>
+        <v>386530.003808655</v>
       </c>
       <c r="AE12" t="n">
-        <v>423273.7686878815</v>
+        <v>528867.4037112657</v>
       </c>
       <c r="AF12" t="n">
         <v>1.186734058742439e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.85416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>382877.1142727748</v>
+        <v>478393.0409711248</v>
       </c>
     </row>
     <row r="13">
@@ -17849,28 +17849,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>305.8189752841282</v>
+        <v>382.9935333327869</v>
       </c>
       <c r="AB13" t="n">
-        <v>418.4350137647326</v>
+        <v>524.0286487881169</v>
       </c>
       <c r="AC13" t="n">
-        <v>378.5001633282561</v>
+        <v>474.016090026606</v>
       </c>
       <c r="AD13" t="n">
-        <v>305818.9752841282</v>
+        <v>382993.5333327869</v>
       </c>
       <c r="AE13" t="n">
-        <v>418435.0137647326</v>
+        <v>524028.6487881169</v>
       </c>
       <c r="AF13" t="n">
         <v>1.192445002239755e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.78333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>378500.1633282561</v>
+        <v>474016.090026606</v>
       </c>
     </row>
     <row r="14">
@@ -17955,28 +17955,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>303.6396756402515</v>
+        <v>380.8142336889102</v>
       </c>
       <c r="AB14" t="n">
-        <v>415.4531998480659</v>
+        <v>521.04683487145</v>
       </c>
       <c r="AC14" t="n">
-        <v>375.8029295467938</v>
+        <v>471.3188562451438</v>
       </c>
       <c r="AD14" t="n">
-        <v>303639.6756402515</v>
+        <v>380814.2336889103</v>
       </c>
       <c r="AE14" t="n">
-        <v>415453.1998480659</v>
+        <v>521046.83487145</v>
       </c>
       <c r="AF14" t="n">
         <v>1.194560166498021e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.75416666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>375802.9295467938</v>
+        <v>471318.8562451437</v>
       </c>
     </row>
     <row r="15">
@@ -18061,28 +18061,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>303.0867156677145</v>
+        <v>380.2612737163732</v>
       </c>
       <c r="AB15" t="n">
-        <v>414.6966156187684</v>
+        <v>520.2902506421525</v>
       </c>
       <c r="AC15" t="n">
-        <v>375.1185526544679</v>
+        <v>470.6344793528178</v>
       </c>
       <c r="AD15" t="n">
-        <v>303086.7156677145</v>
+        <v>380261.2737163733</v>
       </c>
       <c r="AE15" t="n">
-        <v>414696.6156187684</v>
+        <v>520290.2506421525</v>
       </c>
       <c r="AF15" t="n">
         <v>1.197140666893105e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.725</v>
       </c>
       <c r="AH15" t="n">
-        <v>375118.5526544679</v>
+        <v>470634.4793528178</v>
       </c>
     </row>
     <row r="16">
@@ -18167,28 +18167,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>303.7839201385984</v>
+        <v>380.9584781872571</v>
       </c>
       <c r="AB16" t="n">
-        <v>415.6505615343221</v>
+        <v>521.2441965577062</v>
       </c>
       <c r="AC16" t="n">
-        <v>375.9814553107127</v>
+        <v>471.4973820090627</v>
       </c>
       <c r="AD16" t="n">
-        <v>303783.9201385984</v>
+        <v>380958.4781872571</v>
       </c>
       <c r="AE16" t="n">
-        <v>415650.5615343221</v>
+        <v>521244.1965577063</v>
       </c>
       <c r="AF16" t="n">
         <v>1.197056060322774e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.725</v>
       </c>
       <c r="AH16" t="n">
-        <v>375981.4553107127</v>
+        <v>471497.3820090627</v>
       </c>
     </row>
   </sheetData>
@@ -18464,28 +18464,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1408.787468566566</v>
+        <v>1603.975837264428</v>
       </c>
       <c r="AB2" t="n">
-        <v>1927.565165809469</v>
+        <v>2194.63050296497</v>
       </c>
       <c r="AC2" t="n">
-        <v>1743.601051739314</v>
+        <v>1985.178047945248</v>
       </c>
       <c r="AD2" t="n">
-        <v>1408787.468566566</v>
+        <v>1603975.837264428</v>
       </c>
       <c r="AE2" t="n">
-        <v>1927565.165809469</v>
+        <v>2194630.50296497</v>
       </c>
       <c r="AF2" t="n">
         <v>4.243228016667372e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.7625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1743601.051739314</v>
+        <v>1985178.047945248</v>
       </c>
     </row>
     <row r="3">
@@ -18570,28 +18570,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>588.3537708832717</v>
+        <v>695.6434704012696</v>
       </c>
       <c r="AB3" t="n">
-        <v>805.0115856589583</v>
+        <v>951.8100858269669</v>
       </c>
       <c r="AC3" t="n">
-        <v>728.1824097645232</v>
+        <v>860.970667109486</v>
       </c>
       <c r="AD3" t="n">
-        <v>588353.7708832717</v>
+        <v>695643.4704012696</v>
       </c>
       <c r="AE3" t="n">
-        <v>805011.5856589583</v>
+        <v>951810.0858269669</v>
       </c>
       <c r="AF3" t="n">
         <v>7.525442183991645e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>728182.4097645232</v>
+        <v>860970.6671094861</v>
       </c>
     </row>
     <row r="4">
@@ -18676,28 +18676,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>476.3033609628782</v>
+        <v>564.1015559461144</v>
       </c>
       <c r="AB4" t="n">
-        <v>651.6992714906719</v>
+        <v>771.8286352497288</v>
       </c>
       <c r="AC4" t="n">
-        <v>589.5020076852736</v>
+        <v>698.166393569787</v>
       </c>
       <c r="AD4" t="n">
-        <v>476303.3609628782</v>
+        <v>564101.5559461145</v>
       </c>
       <c r="AE4" t="n">
-        <v>651699.2714906719</v>
+        <v>771828.6352497288</v>
       </c>
       <c r="AF4" t="n">
         <v>8.704116633065915e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.40833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>589502.0076852737</v>
+        <v>698166.393569787</v>
       </c>
     </row>
     <row r="5">
@@ -18782,28 +18782,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>434.6975022349424</v>
+        <v>522.4615317993978</v>
       </c>
       <c r="AB5" t="n">
-        <v>594.7723000581676</v>
+        <v>714.8549171839766</v>
       </c>
       <c r="AC5" t="n">
-        <v>538.0080665087813</v>
+        <v>646.6301671931149</v>
       </c>
       <c r="AD5" t="n">
-        <v>434697.5022349423</v>
+        <v>522461.5317993978</v>
       </c>
       <c r="AE5" t="n">
-        <v>594772.3000581677</v>
+        <v>714854.9171839766</v>
       </c>
       <c r="AF5" t="n">
         <v>9.302106443281408e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.225</v>
       </c>
       <c r="AH5" t="n">
-        <v>538008.0665087813</v>
+        <v>646630.1671931149</v>
       </c>
     </row>
     <row r="6">
@@ -18888,28 +18888,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>406.3512198879073</v>
+        <v>494.1825692600672</v>
       </c>
       <c r="AB6" t="n">
-        <v>555.9876660012366</v>
+        <v>676.162393057887</v>
       </c>
       <c r="AC6" t="n">
-        <v>502.924983491668</v>
+        <v>611.6304032643204</v>
       </c>
       <c r="AD6" t="n">
-        <v>406351.2198879073</v>
+        <v>494182.5692600672</v>
       </c>
       <c r="AE6" t="n">
-        <v>555987.6660012365</v>
+        <v>676162.393057887</v>
       </c>
       <c r="AF6" t="n">
         <v>9.694356994033695e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.52916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>502924.983491668</v>
+        <v>611630.4032643205</v>
       </c>
     </row>
     <row r="7">
@@ -18994,28 +18994,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>394.9824434256031</v>
+        <v>473.0178034320681</v>
       </c>
       <c r="AB7" t="n">
-        <v>540.4324044904923</v>
+        <v>647.2038267284493</v>
       </c>
       <c r="AC7" t="n">
-        <v>488.8542943075625</v>
+        <v>585.4356018617611</v>
       </c>
       <c r="AD7" t="n">
-        <v>394982.4434256031</v>
+        <v>473017.8034320681</v>
       </c>
       <c r="AE7" t="n">
-        <v>540432.4044904923</v>
+        <v>647203.8267284492</v>
       </c>
       <c r="AF7" t="n">
         <v>9.947012495841784e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.10833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>488854.2943075625</v>
+        <v>585435.6018617612</v>
       </c>
     </row>
     <row r="8">
@@ -19100,28 +19100,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>375.9654435044888</v>
+        <v>454.0681233186583</v>
       </c>
       <c r="AB8" t="n">
-        <v>514.4125062275989</v>
+        <v>621.2760383963974</v>
       </c>
       <c r="AC8" t="n">
-        <v>465.317698615723</v>
+        <v>561.9823252582408</v>
       </c>
       <c r="AD8" t="n">
-        <v>375965.4435044888</v>
+        <v>454068.1233186583</v>
       </c>
       <c r="AE8" t="n">
-        <v>514412.5062275989</v>
+        <v>621276.0383963975</v>
       </c>
       <c r="AF8" t="n">
         <v>1.015390543339544e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.77916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>465317.6986157231</v>
+        <v>561982.3252582408</v>
       </c>
     </row>
     <row r="9">
@@ -19206,28 +19206,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>369.6309951075809</v>
+        <v>447.7336749217505</v>
       </c>
       <c r="AB9" t="n">
-        <v>505.7454344748093</v>
+        <v>612.6089666436078</v>
       </c>
       <c r="AC9" t="n">
-        <v>457.4778000267082</v>
+        <v>554.1424266692258</v>
       </c>
       <c r="AD9" t="n">
-        <v>369630.9951075809</v>
+        <v>447733.6749217505</v>
       </c>
       <c r="AE9" t="n">
-        <v>505745.4344748093</v>
+        <v>612608.9666436078</v>
       </c>
       <c r="AF9" t="n">
         <v>1.029273136361267e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.56666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>457477.8000267082</v>
+        <v>554142.4266692258</v>
       </c>
     </row>
     <row r="10">
@@ -19312,28 +19312,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>364.7387286275194</v>
+        <v>442.7399232152038</v>
       </c>
       <c r="AB10" t="n">
-        <v>499.0516196452247</v>
+        <v>605.7762952499338</v>
       </c>
       <c r="AC10" t="n">
-        <v>451.4228334896309</v>
+        <v>547.9618558436497</v>
       </c>
       <c r="AD10" t="n">
-        <v>364738.7286275194</v>
+        <v>442739.9232152037</v>
       </c>
       <c r="AE10" t="n">
-        <v>499051.6196452247</v>
+        <v>605776.2952499338</v>
       </c>
       <c r="AF10" t="n">
         <v>1.039425503557209e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>451422.833489631</v>
+        <v>547961.8558436497</v>
       </c>
     </row>
     <row r="11">
@@ -19418,28 +19418,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>359.7441081305925</v>
+        <v>437.7453027182767</v>
       </c>
       <c r="AB11" t="n">
-        <v>492.2177595342242</v>
+        <v>598.9424351389333</v>
       </c>
       <c r="AC11" t="n">
-        <v>445.2411873962415</v>
+        <v>541.7802097502603</v>
       </c>
       <c r="AD11" t="n">
-        <v>359744.1081305924</v>
+        <v>437745.3027182767</v>
       </c>
       <c r="AE11" t="n">
-        <v>492217.7595342242</v>
+        <v>598942.4351389334</v>
       </c>
       <c r="AF11" t="n">
         <v>1.049731694498543e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.2625</v>
       </c>
       <c r="AH11" t="n">
-        <v>445241.1873962415</v>
+        <v>541780.2097502602</v>
       </c>
     </row>
     <row r="12">
@@ -19524,28 +19524,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>355.8891750232479</v>
+        <v>424.1958654717227</v>
       </c>
       <c r="AB12" t="n">
-        <v>486.9432699891095</v>
+        <v>580.4034973392145</v>
       </c>
       <c r="AC12" t="n">
-        <v>440.4700877305199</v>
+        <v>525.0106021545838</v>
       </c>
       <c r="AD12" t="n">
-        <v>355889.1750232479</v>
+        <v>424195.8654717227</v>
       </c>
       <c r="AE12" t="n">
-        <v>486943.2699891095</v>
+        <v>580403.4973392144</v>
       </c>
       <c r="AF12" t="n">
         <v>1.056961410532017e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.15833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>440470.0877305199</v>
+        <v>525010.6021545838</v>
       </c>
     </row>
     <row r="13">
@@ -19630,28 +19630,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>352.8908782158131</v>
+        <v>421.1975686642878</v>
       </c>
       <c r="AB13" t="n">
-        <v>482.8408680216575</v>
+        <v>576.3010953717625</v>
       </c>
       <c r="AC13" t="n">
-        <v>436.7592132490843</v>
+        <v>521.2997276731481</v>
       </c>
       <c r="AD13" t="n">
-        <v>352890.8782158131</v>
+        <v>421197.5686642878</v>
       </c>
       <c r="AE13" t="n">
-        <v>482840.8680216575</v>
+        <v>576301.0953717625</v>
       </c>
       <c r="AF13" t="n">
         <v>1.061230019466674e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.1</v>
       </c>
       <c r="AH13" t="n">
-        <v>436759.2132490843</v>
+        <v>521299.7276731482</v>
       </c>
     </row>
     <row r="14">
@@ -19736,28 +19736,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>349.6891230133655</v>
+        <v>417.9958134618403</v>
       </c>
       <c r="AB14" t="n">
-        <v>478.4600853021983</v>
+        <v>571.9203126523033</v>
       </c>
       <c r="AC14" t="n">
-        <v>432.7965262839031</v>
+        <v>517.3370407079669</v>
       </c>
       <c r="AD14" t="n">
-        <v>349689.1230133655</v>
+        <v>417995.8134618403</v>
       </c>
       <c r="AE14" t="n">
-        <v>478460.0853021983</v>
+        <v>571920.3126523034</v>
       </c>
       <c r="AF14" t="n">
         <v>1.066037011510207e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.02916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>432796.526283903</v>
+        <v>517337.0407079669</v>
       </c>
     </row>
     <row r="15">
@@ -19842,28 +19842,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>337.1469203995528</v>
+        <v>415.2154347949415</v>
       </c>
       <c r="AB15" t="n">
-        <v>461.2992903630519</v>
+        <v>568.1160758986027</v>
       </c>
       <c r="AC15" t="n">
-        <v>417.2735335284218</v>
+        <v>513.8958749707597</v>
       </c>
       <c r="AD15" t="n">
-        <v>337146.9203995528</v>
+        <v>415215.4347949415</v>
       </c>
       <c r="AE15" t="n">
-        <v>461299.2903630519</v>
+        <v>568116.0758986027</v>
       </c>
       <c r="AF15" t="n">
         <v>1.071113195108178e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.95833333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>417273.5335284218</v>
+        <v>513895.8749707597</v>
       </c>
     </row>
     <row r="16">
@@ -19948,28 +19948,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>333.4103111641016</v>
+        <v>411.4788255594904</v>
       </c>
       <c r="AB16" t="n">
-        <v>456.1866967595425</v>
+        <v>563.0034822950934</v>
       </c>
       <c r="AC16" t="n">
-        <v>412.6488786828612</v>
+        <v>509.271220125199</v>
       </c>
       <c r="AD16" t="n">
-        <v>333410.3111641016</v>
+        <v>411478.8255594904</v>
       </c>
       <c r="AE16" t="n">
-        <v>456186.6967595426</v>
+        <v>563003.4822950934</v>
       </c>
       <c r="AF16" t="n">
         <v>1.076958497433114e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.87916666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>412648.8786828612</v>
+        <v>509271.220125199</v>
       </c>
     </row>
     <row r="17">
@@ -20054,28 +20054,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>331.3628507846475</v>
+        <v>409.4313651800363</v>
       </c>
       <c r="AB17" t="n">
-        <v>453.3852711407966</v>
+        <v>560.2020566763473</v>
       </c>
       <c r="AC17" t="n">
-        <v>410.1148171933427</v>
+        <v>506.7371586356807</v>
       </c>
       <c r="AD17" t="n">
-        <v>331362.8507846476</v>
+        <v>409431.3651800363</v>
       </c>
       <c r="AE17" t="n">
-        <v>453385.2711407966</v>
+        <v>560202.0566763473</v>
       </c>
       <c r="AF17" t="n">
         <v>1.078958206123223e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.85</v>
       </c>
       <c r="AH17" t="n">
-        <v>410114.8171933427</v>
+        <v>506737.1586356807</v>
       </c>
     </row>
     <row r="18">
@@ -20160,28 +20160,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>327.1482256581991</v>
+        <v>405.2167400535877</v>
       </c>
       <c r="AB18" t="n">
-        <v>447.6186351066518</v>
+        <v>554.4354206422025</v>
       </c>
       <c r="AC18" t="n">
-        <v>404.8985408087723</v>
+        <v>501.5208822511102</v>
       </c>
       <c r="AD18" t="n">
-        <v>327148.2256581991</v>
+        <v>405216.7400535877</v>
       </c>
       <c r="AE18" t="n">
-        <v>447618.6351066518</v>
+        <v>554435.4206422025</v>
       </c>
       <c r="AF18" t="n">
         <v>1.084188213466587e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.77916666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>404898.5408087723</v>
+        <v>501520.8822511102</v>
       </c>
     </row>
     <row r="19">
@@ -20266,28 +20266,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>325.826490902737</v>
+        <v>403.8950052981257</v>
       </c>
       <c r="AB19" t="n">
-        <v>445.8101793034066</v>
+        <v>552.6269648389573</v>
       </c>
       <c r="AC19" t="n">
-        <v>403.2626814892051</v>
+        <v>499.8850229315429</v>
       </c>
       <c r="AD19" t="n">
-        <v>325826.490902737</v>
+        <v>403895.0052981257</v>
       </c>
       <c r="AE19" t="n">
-        <v>445810.1793034066</v>
+        <v>552626.9648389573</v>
       </c>
       <c r="AF19" t="n">
         <v>1.084149757530239e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.77916666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>403262.6814892051</v>
+        <v>499885.0229315429</v>
       </c>
     </row>
     <row r="20">
@@ -20372,28 +20372,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>325.1476557477984</v>
+        <v>403.2161701431871</v>
       </c>
       <c r="AB20" t="n">
-        <v>444.8813670963263</v>
+        <v>551.698152631877</v>
       </c>
       <c r="AC20" t="n">
-        <v>402.4225138155724</v>
+        <v>499.0448552579103</v>
       </c>
       <c r="AD20" t="n">
-        <v>325147.6557477984</v>
+        <v>403216.1701431871</v>
       </c>
       <c r="AE20" t="n">
-        <v>444881.3670963263</v>
+        <v>551698.152631877</v>
       </c>
       <c r="AF20" t="n">
         <v>1.086111010284e-05</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.75416666666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>402422.5138155724</v>
+        <v>499044.8552579103</v>
       </c>
     </row>
     <row r="21">
@@ -20478,28 +20478,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>325.4036632341559</v>
+        <v>403.4721776295447</v>
       </c>
       <c r="AB21" t="n">
-        <v>445.2316478334138</v>
+        <v>552.0484333689645</v>
       </c>
       <c r="AC21" t="n">
-        <v>402.7393642507344</v>
+        <v>499.3617056930723</v>
       </c>
       <c r="AD21" t="n">
-        <v>325403.6632341559</v>
+        <v>403472.1776295446</v>
       </c>
       <c r="AE21" t="n">
-        <v>445231.6478334138</v>
+        <v>552048.4333689646</v>
       </c>
       <c r="AF21" t="n">
         <v>1.085611083111473e-05</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.75833333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>402739.3642507344</v>
+        <v>499361.7056930723</v>
       </c>
     </row>
     <row r="22">
@@ -20584,28 +20584,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>326.0485749254748</v>
+        <v>404.1170893208635</v>
       </c>
       <c r="AB22" t="n">
-        <v>446.1140444609721</v>
+        <v>552.9308299965228</v>
       </c>
       <c r="AC22" t="n">
-        <v>403.53754618261</v>
+        <v>500.1598876249478</v>
       </c>
       <c r="AD22" t="n">
-        <v>326048.5749254748</v>
+        <v>404117.0893208635</v>
       </c>
       <c r="AE22" t="n">
-        <v>446114.0444609721</v>
+        <v>552930.8299965227</v>
       </c>
       <c r="AF22" t="n">
         <v>1.08568799498417e-05</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.75833333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>403537.54618261</v>
+        <v>500159.8876249478</v>
       </c>
     </row>
   </sheetData>
@@ -20881,28 +20881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>628.4816958981869</v>
+        <v>752.2041763390848</v>
       </c>
       <c r="AB2" t="n">
-        <v>859.9163829834738</v>
+        <v>1029.198938973323</v>
       </c>
       <c r="AC2" t="n">
-        <v>777.847170291754</v>
+        <v>930.9736367274919</v>
       </c>
       <c r="AD2" t="n">
-        <v>628481.6958981869</v>
+        <v>752204.1763390849</v>
       </c>
       <c r="AE2" t="n">
-        <v>859916.3829834738</v>
+        <v>1029198.938973323</v>
       </c>
       <c r="AF2" t="n">
         <v>8.086210367829285e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.70416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>777847.170291754</v>
+        <v>930973.6367274919</v>
       </c>
     </row>
     <row r="3">
@@ -20987,28 +20987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.4418044283165</v>
+        <v>484.5708934828156</v>
       </c>
       <c r="AB3" t="n">
-        <v>532.8514577786638</v>
+        <v>663.0112742222431</v>
       </c>
       <c r="AC3" t="n">
-        <v>481.9968625099854</v>
+        <v>599.7344087526391</v>
       </c>
       <c r="AD3" t="n">
-        <v>389441.8044283165</v>
+        <v>484570.8934828156</v>
       </c>
       <c r="AE3" t="n">
-        <v>532851.4577786637</v>
+        <v>663011.2742222431</v>
       </c>
       <c r="AF3" t="n">
         <v>1.111320581826351e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.975</v>
       </c>
       <c r="AH3" t="n">
-        <v>481996.8625099853</v>
+        <v>599734.4087526391</v>
       </c>
     </row>
     <row r="4">
@@ -21093,28 +21093,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>345.4026021938843</v>
+        <v>421.4932182998284</v>
       </c>
       <c r="AB4" t="n">
-        <v>472.5950784090321</v>
+        <v>576.7056162462504</v>
       </c>
       <c r="AC4" t="n">
-        <v>427.4912674170317</v>
+        <v>521.6656416431235</v>
       </c>
       <c r="AD4" t="n">
-        <v>345402.6021938843</v>
+        <v>421493.2182998284</v>
       </c>
       <c r="AE4" t="n">
-        <v>472595.0784090321</v>
+        <v>576705.6162462505</v>
       </c>
       <c r="AF4" t="n">
         <v>1.215304635231353e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>427491.2674170317</v>
+        <v>521665.6416431236</v>
       </c>
     </row>
     <row r="5">
@@ -21199,28 +21199,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>319.8297226074536</v>
+        <v>395.9876585211021</v>
       </c>
       <c r="AB5" t="n">
-        <v>437.6051363630543</v>
+        <v>541.8077841311142</v>
       </c>
       <c r="AC5" t="n">
-        <v>395.84071633123</v>
+        <v>490.098409645641</v>
       </c>
       <c r="AD5" t="n">
-        <v>319829.7226074536</v>
+        <v>395987.6585211021</v>
       </c>
       <c r="AE5" t="n">
-        <v>437605.1363630543</v>
+        <v>541807.7841311143</v>
       </c>
       <c r="AF5" t="n">
         <v>1.26842327569827e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>395840.71633123</v>
+        <v>490098.409645641</v>
       </c>
     </row>
     <row r="6">
@@ -21305,28 +21305,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>309.8906071019306</v>
+        <v>385.947057789094</v>
       </c>
       <c r="AB6" t="n">
-        <v>424.0060000455683</v>
+        <v>528.069791249539</v>
       </c>
       <c r="AC6" t="n">
-        <v>383.5394624973772</v>
+        <v>477.6715515232891</v>
       </c>
       <c r="AD6" t="n">
-        <v>309890.6071019307</v>
+        <v>385947.057789094</v>
       </c>
       <c r="AE6" t="n">
-        <v>424006.0000455683</v>
+        <v>528069.791249539</v>
       </c>
       <c r="AF6" t="n">
         <v>1.300735517281936e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.35833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>383539.4624973772</v>
+        <v>477671.5515232891</v>
       </c>
     </row>
     <row r="7">
@@ -21411,28 +21411,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>302.9479000224417</v>
+        <v>369.5529395579606</v>
       </c>
       <c r="AB7" t="n">
-        <v>414.5066819287921</v>
+        <v>505.638635428251</v>
       </c>
       <c r="AC7" t="n">
-        <v>374.9467459692894</v>
+        <v>457.3811937312598</v>
       </c>
       <c r="AD7" t="n">
-        <v>302947.9000224418</v>
+        <v>369552.9395579606</v>
       </c>
       <c r="AE7" t="n">
-        <v>414506.6819287922</v>
+        <v>505638.6354282509</v>
       </c>
       <c r="AF7" t="n">
         <v>1.321062506052669e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.12083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>374946.7459692894</v>
+        <v>457381.1937312598</v>
       </c>
     </row>
     <row r="8">
@@ -21517,28 +21517,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>286.0335630911561</v>
+        <v>362.1573335860238</v>
       </c>
       <c r="AB8" t="n">
-        <v>391.3637399315264</v>
+        <v>495.5196410663386</v>
       </c>
       <c r="AC8" t="n">
-        <v>354.0125338749196</v>
+        <v>448.2279419891506</v>
       </c>
       <c r="AD8" t="n">
-        <v>286033.5630911561</v>
+        <v>362157.3335860238</v>
       </c>
       <c r="AE8" t="n">
-        <v>391363.7399315264</v>
+        <v>495519.6410663386</v>
       </c>
       <c r="AF8" t="n">
         <v>1.339759500440844e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.90833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>354012.5338749196</v>
+        <v>448227.9419891506</v>
       </c>
     </row>
     <row r="9">
@@ -21623,28 +21623,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>281.1921127018741</v>
+        <v>357.3158831967418</v>
       </c>
       <c r="AB9" t="n">
-        <v>384.739453919194</v>
+        <v>488.8953550540061</v>
       </c>
       <c r="AC9" t="n">
-        <v>348.0204604223603</v>
+        <v>442.2358685365914</v>
       </c>
       <c r="AD9" t="n">
-        <v>281192.1127018741</v>
+        <v>357315.8831967418</v>
       </c>
       <c r="AE9" t="n">
-        <v>384739.453919194</v>
+        <v>488895.3550540062</v>
       </c>
       <c r="AF9" t="n">
         <v>1.350306522916225e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>348020.4604223603</v>
+        <v>442235.8685365914</v>
       </c>
     </row>
     <row r="10">
@@ -21729,28 +21729,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>280.5071061685622</v>
+        <v>356.6308766634299</v>
       </c>
       <c r="AB10" t="n">
-        <v>383.8021977599614</v>
+        <v>487.9580988947735</v>
       </c>
       <c r="AC10" t="n">
-        <v>347.1726546755176</v>
+        <v>441.3880627897486</v>
       </c>
       <c r="AD10" t="n">
-        <v>280507.1061685623</v>
+        <v>356630.8766634299</v>
       </c>
       <c r="AE10" t="n">
-        <v>383802.1977599614</v>
+        <v>487958.0988947735</v>
       </c>
       <c r="AF10" t="n">
         <v>1.352176222355042e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.775</v>
       </c>
       <c r="AH10" t="n">
-        <v>347172.6546755176</v>
+        <v>441388.0627897487</v>
       </c>
     </row>
     <row r="11">
@@ -21835,28 +21835,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>281.286791305242</v>
+        <v>357.4105618001097</v>
       </c>
       <c r="AB11" t="n">
-        <v>384.8689973612472</v>
+        <v>489.0248984960593</v>
       </c>
       <c r="AC11" t="n">
-        <v>348.1376404201194</v>
+        <v>442.3530485343504</v>
       </c>
       <c r="AD11" t="n">
-        <v>281286.791305242</v>
+        <v>357410.5618001097</v>
       </c>
       <c r="AE11" t="n">
-        <v>384868.9973612472</v>
+        <v>489024.8984960594</v>
       </c>
       <c r="AF11" t="n">
         <v>1.35212828134379e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.775</v>
       </c>
       <c r="AH11" t="n">
-        <v>348137.6404201194</v>
+        <v>442353.0485343504</v>
       </c>
     </row>
   </sheetData>
@@ -22132,28 +22132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>472.0417440878326</v>
+        <v>575.4520111429476</v>
       </c>
       <c r="AB2" t="n">
-        <v>645.868339272967</v>
+        <v>787.3588287967781</v>
       </c>
       <c r="AC2" t="n">
-        <v>584.2275714546616</v>
+        <v>712.2144072414695</v>
       </c>
       <c r="AD2" t="n">
-        <v>472041.7440878326</v>
+        <v>575452.0111429476</v>
       </c>
       <c r="AE2" t="n">
-        <v>645868.339272967</v>
+        <v>787358.8287967781</v>
       </c>
       <c r="AF2" t="n">
         <v>1.056120251022678e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.50833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>584227.5714546617</v>
+        <v>712214.4072414695</v>
       </c>
     </row>
     <row r="3">
@@ -22238,28 +22238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>327.1287445348731</v>
+        <v>411.7029794339136</v>
       </c>
       <c r="AB3" t="n">
-        <v>447.5919801742707</v>
+        <v>563.3101795150501</v>
       </c>
       <c r="AC3" t="n">
-        <v>404.8744297857272</v>
+        <v>509.5486465929354</v>
       </c>
       <c r="AD3" t="n">
-        <v>327128.7445348731</v>
+        <v>411702.9794339136</v>
       </c>
       <c r="AE3" t="n">
-        <v>447591.9801742707</v>
+        <v>563310.1795150501</v>
       </c>
       <c r="AF3" t="n">
         <v>1.344544543794485e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.89166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>404874.4297857272</v>
+        <v>509548.6465929354</v>
       </c>
     </row>
     <row r="4">
@@ -22344,28 +22344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>293.918989945937</v>
+        <v>369.1264568951115</v>
       </c>
       <c r="AB4" t="n">
-        <v>402.1529288347182</v>
+        <v>505.0551030338535</v>
       </c>
       <c r="AC4" t="n">
-        <v>363.7720177319125</v>
+        <v>456.8533528495908</v>
       </c>
       <c r="AD4" t="n">
-        <v>293918.9899459369</v>
+        <v>369126.4568951115</v>
       </c>
       <c r="AE4" t="n">
-        <v>402152.9288347182</v>
+        <v>505055.1030338535</v>
       </c>
       <c r="AF4" t="n">
         <v>1.443320733267649e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.7375</v>
       </c>
       <c r="AH4" t="n">
-        <v>363772.0177319125</v>
+        <v>456853.3528495908</v>
       </c>
     </row>
     <row r="5">
@@ -22450,28 +22450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>281.7414422445332</v>
+        <v>356.8474239672224</v>
       </c>
       <c r="AB5" t="n">
-        <v>385.4910708341692</v>
+        <v>488.2543884692153</v>
       </c>
       <c r="AC5" t="n">
-        <v>348.7003440738713</v>
+        <v>441.6560749030507</v>
       </c>
       <c r="AD5" t="n">
-        <v>281741.4422445332</v>
+        <v>356847.4239672225</v>
       </c>
       <c r="AE5" t="n">
-        <v>385491.0708341692</v>
+        <v>488254.3884692152</v>
       </c>
       <c r="AF5" t="n">
         <v>1.491509558595617e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.22916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>348700.3440738713</v>
+        <v>441656.0749030507</v>
       </c>
     </row>
     <row r="6">
@@ -22556,28 +22556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>264.1728513679378</v>
+        <v>339.3461528983315</v>
       </c>
       <c r="AB6" t="n">
-        <v>361.4529497252838</v>
+        <v>464.3083772911712</v>
       </c>
       <c r="AC6" t="n">
-        <v>326.956387505903</v>
+        <v>419.9954374234015</v>
       </c>
       <c r="AD6" t="n">
-        <v>264172.8513679378</v>
+        <v>339346.1528983315</v>
       </c>
       <c r="AE6" t="n">
-        <v>361452.9497252838</v>
+        <v>464308.3772911712</v>
       </c>
       <c r="AF6" t="n">
         <v>1.518111534568522e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.9625</v>
       </c>
       <c r="AH6" t="n">
-        <v>326956.387505903</v>
+        <v>419995.4374234015</v>
       </c>
     </row>
     <row r="7">
@@ -22662,28 +22662,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>263.1301257106171</v>
+        <v>338.3034272410107</v>
       </c>
       <c r="AB7" t="n">
-        <v>360.0262464791281</v>
+        <v>462.8816740450156</v>
       </c>
       <c r="AC7" t="n">
-        <v>325.6658468151699</v>
+        <v>418.7048967326684</v>
       </c>
       <c r="AD7" t="n">
-        <v>263130.1257106171</v>
+        <v>338303.4272410107</v>
       </c>
       <c r="AE7" t="n">
-        <v>360026.2464791281</v>
+        <v>462881.6740450156</v>
       </c>
       <c r="AF7" t="n">
         <v>1.523671783644827e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.90833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>325665.8468151699</v>
+        <v>418704.8967326684</v>
       </c>
     </row>
   </sheetData>
@@ -42196,28 +42196,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>379.5641668952536</v>
+        <v>472.5223558452914</v>
       </c>
       <c r="AB2" t="n">
-        <v>519.3364383353143</v>
+        <v>646.5259334826164</v>
       </c>
       <c r="AC2" t="n">
-        <v>469.7716975538601</v>
+        <v>584.8224057958815</v>
       </c>
       <c r="AD2" t="n">
-        <v>379564.1668952536</v>
+        <v>472522.3558452914</v>
       </c>
       <c r="AE2" t="n">
-        <v>519336.4383353143</v>
+        <v>646525.9334826164</v>
       </c>
       <c r="AF2" t="n">
         <v>1.309425653035452e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>469771.6975538601</v>
+        <v>584822.4057958815</v>
       </c>
     </row>
     <row r="3">
@@ -42302,28 +42302,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.6594907953157</v>
+        <v>365.0399103288296</v>
       </c>
       <c r="AB3" t="n">
-        <v>397.6931382978844</v>
+        <v>499.4637097361561</v>
       </c>
       <c r="AC3" t="n">
-        <v>359.7378633445588</v>
+        <v>451.7955942806561</v>
       </c>
       <c r="AD3" t="n">
-        <v>290659.4907953157</v>
+        <v>365039.9103288297</v>
       </c>
       <c r="AE3" t="n">
-        <v>397693.1382978844</v>
+        <v>499463.7097361562</v>
       </c>
       <c r="AF3" t="n">
         <v>1.578240840397118e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.1625</v>
       </c>
       <c r="AH3" t="n">
-        <v>359737.8633445588</v>
+        <v>451795.5942806561</v>
       </c>
     </row>
     <row r="4">
@@ -42408,28 +42408,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>262.6025512318769</v>
+        <v>336.9488053466101</v>
       </c>
       <c r="AB4" t="n">
-        <v>359.3043958023725</v>
+        <v>461.0282206073965</v>
       </c>
       <c r="AC4" t="n">
-        <v>325.01288855388</v>
+        <v>417.0283342897973</v>
       </c>
       <c r="AD4" t="n">
-        <v>262602.5512318769</v>
+        <v>336948.8053466101</v>
       </c>
       <c r="AE4" t="n">
-        <v>359304.3958023725</v>
+        <v>461028.2206073964</v>
       </c>
       <c r="AF4" t="n">
         <v>1.672212899745822e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.25416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>325012.88855388</v>
+        <v>417028.3342897973</v>
       </c>
     </row>
     <row r="5">
@@ -42514,28 +42514,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>259.2894251595532</v>
+        <v>324.3980426941957</v>
       </c>
       <c r="AB5" t="n">
-        <v>354.7712305454128</v>
+        <v>443.8557134457931</v>
       </c>
       <c r="AC5" t="n">
-        <v>320.9123622267072</v>
+        <v>401.4947471099323</v>
       </c>
       <c r="AD5" t="n">
-        <v>259289.4251595532</v>
+        <v>324398.0426941958</v>
       </c>
       <c r="AE5" t="n">
-        <v>354771.2305454128</v>
+        <v>443855.7134457931</v>
       </c>
       <c r="AF5" t="n">
         <v>1.691007311615562e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.08333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>320912.3622267072</v>
+        <v>401494.7471099324</v>
       </c>
     </row>
   </sheetData>
@@ -42811,28 +42811,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.3425667189867</v>
+        <v>333.3678403699095</v>
       </c>
       <c r="AB2" t="n">
-        <v>343.8979882362163</v>
+        <v>456.1285863452498</v>
       </c>
       <c r="AC2" t="n">
-        <v>311.0768469029124</v>
+        <v>412.5963142449501</v>
       </c>
       <c r="AD2" t="n">
-        <v>251342.5667189867</v>
+        <v>333367.8403699095</v>
       </c>
       <c r="AE2" t="n">
-        <v>343897.9882362164</v>
+        <v>456128.5863452498</v>
       </c>
       <c r="AF2" t="n">
         <v>2.034253255405287e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>311076.8469029124</v>
+        <v>412596.3142449501</v>
       </c>
     </row>
     <row r="3">
@@ -42917,28 +42917,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.4156734353118</v>
+        <v>316.4067816674537</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.7378660836762</v>
+        <v>432.9217175594499</v>
       </c>
       <c r="AC3" t="n">
-        <v>290.1270943031677</v>
+        <v>391.604276445022</v>
       </c>
       <c r="AD3" t="n">
-        <v>234415.6734353119</v>
+        <v>316406.7816674537</v>
       </c>
       <c r="AE3" t="n">
-        <v>320737.8660836762</v>
+        <v>432921.7175594498</v>
       </c>
       <c r="AF3" t="n">
         <v>2.113359505625434e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.9625</v>
       </c>
       <c r="AH3" t="n">
-        <v>290127.0943031677</v>
+        <v>391604.276445022</v>
       </c>
     </row>
   </sheetData>
@@ -43214,28 +43214,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>840.4227456320884</v>
+        <v>984.6951080965656</v>
       </c>
       <c r="AB2" t="n">
-        <v>1149.90347740861</v>
+        <v>1347.30328857993</v>
       </c>
       <c r="AC2" t="n">
-        <v>1040.158303424398</v>
+        <v>1218.718553669903</v>
       </c>
       <c r="AD2" t="n">
-        <v>840422.7456320884</v>
+        <v>984695.1080965656</v>
       </c>
       <c r="AE2" t="n">
-        <v>1149903.47740861</v>
+        <v>1347303.288579931</v>
       </c>
       <c r="AF2" t="n">
         <v>6.328828015974998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.6375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1040158.303424398</v>
+        <v>1218718.553669903</v>
       </c>
     </row>
     <row r="3">
@@ -43320,28 +43320,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>464.2150984543127</v>
+        <v>560.3179651499994</v>
       </c>
       <c r="AB3" t="n">
-        <v>635.159577429949</v>
+        <v>766.6517594022388</v>
       </c>
       <c r="AC3" t="n">
-        <v>574.5408388120995</v>
+        <v>693.4835914873906</v>
       </c>
       <c r="AD3" t="n">
-        <v>464215.0984543127</v>
+        <v>560317.9651499994</v>
       </c>
       <c r="AE3" t="n">
-        <v>635159.577429949</v>
+        <v>766651.7594022388</v>
       </c>
       <c r="AF3" t="n">
         <v>9.468883648093452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.14166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>574540.8388120995</v>
+        <v>693483.5914873907</v>
       </c>
     </row>
     <row r="4">
@@ -43426,28 +43426,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>395.1006794520322</v>
+        <v>472.0310066008461</v>
       </c>
       <c r="AB4" t="n">
-        <v>540.594180238058</v>
+        <v>645.8536477695676</v>
       </c>
       <c r="AC4" t="n">
-        <v>489.0006304048342</v>
+        <v>584.2142820877273</v>
       </c>
       <c r="AD4" t="n">
-        <v>395100.6794520322</v>
+        <v>472031.0066008461</v>
       </c>
       <c r="AE4" t="n">
-        <v>540594.180238058</v>
+        <v>645853.6477695676</v>
       </c>
       <c r="AF4" t="n">
         <v>1.058806402507652e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.11666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>489000.6304048342</v>
+        <v>584214.2820877272</v>
       </c>
     </row>
     <row r="5">
@@ -43532,28 +43532,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>365.3514618214701</v>
+        <v>442.2476235515032</v>
       </c>
       <c r="AB5" t="n">
-        <v>499.8899882330685</v>
+        <v>605.1027091313305</v>
       </c>
       <c r="AC5" t="n">
-        <v>452.1811893561088</v>
+        <v>547.3525558388217</v>
       </c>
       <c r="AD5" t="n">
-        <v>365351.4618214701</v>
+        <v>442247.6235515032</v>
       </c>
       <c r="AE5" t="n">
-        <v>499889.9882330685</v>
+        <v>605102.7091313305</v>
       </c>
       <c r="AF5" t="n">
         <v>1.11296029171651e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.28333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>452181.1893561088</v>
+        <v>547352.5558388217</v>
       </c>
     </row>
     <row r="6">
@@ -43638,28 +43638,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>342.9237227048004</v>
+        <v>419.887204242538</v>
       </c>
       <c r="AB6" t="n">
-        <v>469.2033661316228</v>
+        <v>574.5081969607261</v>
       </c>
       <c r="AC6" t="n">
-        <v>424.4232553990802</v>
+        <v>519.6779409701123</v>
       </c>
       <c r="AD6" t="n">
-        <v>342923.7227048004</v>
+        <v>419887.204242538</v>
       </c>
       <c r="AE6" t="n">
-        <v>469203.3661316228</v>
+        <v>574508.1969607261</v>
       </c>
       <c r="AF6" t="n">
         <v>1.148366930926157e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.78333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>424423.2553990802</v>
+        <v>519677.9409701123</v>
       </c>
     </row>
     <row r="7">
@@ -43744,28 +43744,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>334.3202662621497</v>
+        <v>411.182262573402</v>
       </c>
       <c r="AB7" t="n">
-        <v>457.4317374690776</v>
+        <v>562.5977117340916</v>
       </c>
       <c r="AC7" t="n">
-        <v>413.7750944545039</v>
+        <v>508.9041757370368</v>
       </c>
       <c r="AD7" t="n">
-        <v>334320.2662621497</v>
+        <v>411182.262573402</v>
       </c>
       <c r="AE7" t="n">
-        <v>457431.7374690776</v>
+        <v>562597.7117340916</v>
       </c>
       <c r="AF7" t="n">
         <v>1.171942358999412e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.46666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>413775.0944545039</v>
+        <v>508904.1757370369</v>
       </c>
     </row>
     <row r="8">
@@ -43850,28 +43850,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>328.1887205353362</v>
+        <v>405.0507168465886</v>
       </c>
       <c r="AB8" t="n">
-        <v>449.0422861009451</v>
+        <v>554.2082603659593</v>
       </c>
       <c r="AC8" t="n">
-        <v>406.186320550277</v>
+        <v>501.31540183281</v>
       </c>
       <c r="AD8" t="n">
-        <v>328188.7205353362</v>
+        <v>405050.7168465885</v>
       </c>
       <c r="AE8" t="n">
-        <v>449042.2861009451</v>
+        <v>554208.2603659593</v>
       </c>
       <c r="AF8" t="n">
         <v>1.187992788813121e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.25416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>406186.320550277</v>
+        <v>501315.40183281</v>
       </c>
     </row>
     <row r="9">
@@ -43956,28 +43956,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>322.2475699955665</v>
+        <v>389.5574619521632</v>
       </c>
       <c r="AB9" t="n">
-        <v>440.9133418273688</v>
+        <v>533.0097055052406</v>
       </c>
       <c r="AC9" t="n">
-        <v>398.8331913091259</v>
+        <v>482.1400072956397</v>
       </c>
       <c r="AD9" t="n">
-        <v>322247.5699955665</v>
+        <v>389557.4619521632</v>
       </c>
       <c r="AE9" t="n">
-        <v>440913.3418273688</v>
+        <v>533009.7055052406</v>
       </c>
       <c r="AF9" t="n">
         <v>1.201041918742967e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.09166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>398833.1913091259</v>
+        <v>482140.0072956397</v>
       </c>
     </row>
     <row r="10">
@@ -44062,28 +44062,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>307.9459081488408</v>
+        <v>384.8752242677975</v>
       </c>
       <c r="AB10" t="n">
-        <v>421.345177143888</v>
+        <v>526.6032613397435</v>
       </c>
       <c r="AC10" t="n">
-        <v>381.1325847989448</v>
+        <v>476.3449851697969</v>
       </c>
       <c r="AD10" t="n">
-        <v>307945.9081488408</v>
+        <v>384875.2242677975</v>
       </c>
       <c r="AE10" t="n">
-        <v>421345.177143888</v>
+        <v>526603.2613397435</v>
       </c>
       <c r="AF10" t="n">
         <v>1.211089748788947e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.96666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>381132.5847989448</v>
+        <v>476344.9851697969</v>
       </c>
     </row>
     <row r="11">
@@ -44168,28 +44168,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>302.9417516857416</v>
+        <v>379.8710678046984</v>
       </c>
       <c r="AB11" t="n">
-        <v>414.4982695032735</v>
+        <v>519.756353699129</v>
       </c>
       <c r="AC11" t="n">
-        <v>374.9391364138553</v>
+        <v>470.1515367847074</v>
       </c>
       <c r="AD11" t="n">
-        <v>302941.7516857416</v>
+        <v>379871.0678046984</v>
       </c>
       <c r="AE11" t="n">
-        <v>414498.2695032735</v>
+        <v>519756.3536991291</v>
       </c>
       <c r="AF11" t="n">
         <v>1.220963590435864e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.84583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>374939.1364138553</v>
+        <v>470151.5367847075</v>
       </c>
     </row>
     <row r="12">
@@ -44274,28 +44274,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>299.4401195267006</v>
+        <v>376.3694356456573</v>
       </c>
       <c r="AB12" t="n">
-        <v>409.7071819021655</v>
+        <v>514.9652660980211</v>
       </c>
       <c r="AC12" t="n">
-        <v>370.6053034890634</v>
+        <v>465.8177038599155</v>
       </c>
       <c r="AD12" t="n">
-        <v>299440.1195267006</v>
+        <v>376369.4356456574</v>
       </c>
       <c r="AE12" t="n">
-        <v>409707.1819021655</v>
+        <v>514965.2660980211</v>
       </c>
       <c r="AF12" t="n">
         <v>1.225835265609673e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.78333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>370605.3034890634</v>
+        <v>465817.7038599155</v>
       </c>
     </row>
     <row r="13">
@@ -44380,28 +44380,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>298.0202547808295</v>
+        <v>374.9495708997863</v>
       </c>
       <c r="AB13" t="n">
-        <v>407.764460316853</v>
+        <v>513.0225445127086</v>
       </c>
       <c r="AC13" t="n">
-        <v>368.8479925252262</v>
+        <v>464.0603928960784</v>
       </c>
       <c r="AD13" t="n">
-        <v>298020.2547808295</v>
+        <v>374949.5708997863</v>
       </c>
       <c r="AE13" t="n">
-        <v>407764.460316853</v>
+        <v>513022.5445127086</v>
       </c>
       <c r="AF13" t="n">
         <v>1.228097114797513e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.75833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>368847.9925252262</v>
+        <v>464060.3928960784</v>
       </c>
     </row>
     <row r="14">
@@ -44486,28 +44486,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>297.3563547645031</v>
+        <v>374.2856708834598</v>
       </c>
       <c r="AB14" t="n">
-        <v>406.8560830253136</v>
+        <v>512.1141672211691</v>
       </c>
       <c r="AC14" t="n">
-        <v>368.0263094874758</v>
+        <v>463.2387098583279</v>
       </c>
       <c r="AD14" t="n">
-        <v>297356.3547645031</v>
+        <v>374285.6708834598</v>
       </c>
       <c r="AE14" t="n">
-        <v>406856.0830253136</v>
+        <v>512114.1672211691</v>
       </c>
       <c r="AF14" t="n">
         <v>1.230663443683716e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.725</v>
       </c>
       <c r="AH14" t="n">
-        <v>368026.3094874758</v>
+        <v>463238.7098583279</v>
       </c>
     </row>
   </sheetData>
@@ -44783,28 +44783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1261.925282047087</v>
+        <v>1437.179200320366</v>
       </c>
       <c r="AB2" t="n">
-        <v>1726.621843111121</v>
+        <v>1966.411985749822</v>
       </c>
       <c r="AC2" t="n">
-        <v>1561.835477733572</v>
+        <v>1778.740385706414</v>
       </c>
       <c r="AD2" t="n">
-        <v>1261925.282047087</v>
+        <v>1437179.200320366</v>
       </c>
       <c r="AE2" t="n">
-        <v>1726621.843111121</v>
+        <v>1966411.985749822</v>
       </c>
       <c r="AF2" t="n">
         <v>4.607981459061826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.54166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1561835.477733572</v>
+        <v>1778740.385706414</v>
       </c>
     </row>
     <row r="3">
@@ -44889,28 +44889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>555.2479302964148</v>
+        <v>662.3133816001931</v>
       </c>
       <c r="AB3" t="n">
-        <v>759.7147140414128</v>
+        <v>906.2063879095933</v>
       </c>
       <c r="AC3" t="n">
-        <v>687.2086079995976</v>
+        <v>819.7193221161544</v>
       </c>
       <c r="AD3" t="n">
-        <v>555247.9302964148</v>
+        <v>662313.3816001931</v>
       </c>
       <c r="AE3" t="n">
-        <v>759714.7140414128</v>
+        <v>906206.3879095933</v>
       </c>
       <c r="AF3" t="n">
         <v>7.869020538372297e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>687208.6079995976</v>
+        <v>819719.3221161545</v>
       </c>
     </row>
     <row r="4">
@@ -44995,28 +44995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>461.6627194080367</v>
+        <v>549.2223587369715</v>
       </c>
       <c r="AB4" t="n">
-        <v>631.6672998158176</v>
+        <v>751.4702612043266</v>
       </c>
       <c r="AC4" t="n">
-        <v>571.3818592720186</v>
+        <v>679.7509941701206</v>
       </c>
       <c r="AD4" t="n">
-        <v>461662.7194080367</v>
+        <v>549222.3587369715</v>
       </c>
       <c r="AE4" t="n">
-        <v>631667.2998158176</v>
+        <v>751470.2612043265</v>
       </c>
       <c r="AF4" t="n">
         <v>9.025339324841069e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.14583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>571381.8592720185</v>
+        <v>679750.9941701207</v>
       </c>
     </row>
     <row r="5">
@@ -45101,19 +45101,19 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>411.8280141560823</v>
+        <v>499.4208078739409</v>
       </c>
       <c r="AB5" t="n">
-        <v>563.481257538064</v>
+        <v>683.3295822241668</v>
       </c>
       <c r="AC5" t="n">
-        <v>509.7033971695425</v>
+        <v>618.1135659557837</v>
       </c>
       <c r="AD5" t="n">
-        <v>411828.0141560823</v>
+        <v>499420.8078739409</v>
       </c>
       <c r="AE5" t="n">
-        <v>563481.257538064</v>
+        <v>683329.5822241667</v>
       </c>
       <c r="AF5" t="n">
         <v>9.633762669998669e-06</v>
@@ -45122,7 +45122,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>509703.3971695425</v>
+        <v>618113.5659557837</v>
       </c>
     </row>
     <row r="6">
@@ -45207,28 +45207,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>396.0182958258023</v>
+        <v>473.8416063617773</v>
       </c>
       <c r="AB6" t="n">
-        <v>541.8497034430276</v>
+        <v>648.3309902404977</v>
       </c>
       <c r="AC6" t="n">
-        <v>490.1363282372595</v>
+        <v>586.4551904702037</v>
       </c>
       <c r="AD6" t="n">
-        <v>396018.2958258023</v>
+        <v>473841.6063617773</v>
       </c>
       <c r="AE6" t="n">
-        <v>541849.7034430276</v>
+        <v>648330.9902404977</v>
       </c>
       <c r="AF6" t="n">
         <v>9.989855403017266e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.39166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>490136.3282372595</v>
+        <v>586455.1904702036</v>
       </c>
     </row>
     <row r="7">
@@ -45313,28 +45313,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>374.7996868579071</v>
+        <v>462.3583151569848</v>
       </c>
       <c r="AB7" t="n">
-        <v>512.8174665541923</v>
+        <v>632.6190446070472</v>
       </c>
       <c r="AC7" t="n">
-        <v>463.874887290094</v>
+        <v>572.2427708761553</v>
       </c>
       <c r="AD7" t="n">
-        <v>374799.6868579071</v>
+        <v>462358.3151569848</v>
       </c>
       <c r="AE7" t="n">
-        <v>512817.4665541922</v>
+        <v>632619.0446070471</v>
       </c>
       <c r="AF7" t="n">
         <v>1.025358412691956e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.97083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>463874.887290094</v>
+        <v>572242.7708761554</v>
       </c>
     </row>
     <row r="8">
@@ -45419,28 +45419,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>367.5919099452888</v>
+        <v>445.4825402889682</v>
       </c>
       <c r="AB8" t="n">
-        <v>502.9554681976728</v>
+        <v>609.5288649259843</v>
       </c>
       <c r="AC8" t="n">
-        <v>454.9541042153193</v>
+        <v>551.3562855365825</v>
       </c>
       <c r="AD8" t="n">
-        <v>367591.9099452888</v>
+        <v>445482.5402889682</v>
       </c>
       <c r="AE8" t="n">
-        <v>502955.4681976727</v>
+        <v>609528.8649259843</v>
       </c>
       <c r="AF8" t="n">
         <v>1.042259061168556e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.7125</v>
       </c>
       <c r="AH8" t="n">
-        <v>454954.1042153193</v>
+        <v>551356.2855365825</v>
       </c>
     </row>
     <row r="9">
@@ -45525,28 +45525,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>360.9202672298406</v>
+        <v>438.7094123470347</v>
       </c>
       <c r="AB9" t="n">
-        <v>493.8270323022928</v>
+        <v>600.261572466515</v>
       </c>
       <c r="AC9" t="n">
-        <v>446.6968734299542</v>
+        <v>542.9734504627182</v>
       </c>
       <c r="AD9" t="n">
-        <v>360920.2672298406</v>
+        <v>438709.4123470347</v>
       </c>
       <c r="AE9" t="n">
-        <v>493827.0323022928</v>
+        <v>600261.572466515</v>
       </c>
       <c r="AF9" t="n">
         <v>1.057391037130163e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.4875</v>
       </c>
       <c r="AH9" t="n">
-        <v>446696.8734299542</v>
+        <v>542973.4504627183</v>
       </c>
     </row>
     <row r="10">
@@ -45631,28 +45631,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>356.0441192677833</v>
+        <v>433.8332643849774</v>
       </c>
       <c r="AB10" t="n">
-        <v>487.1552715401404</v>
+        <v>593.5898117043628</v>
       </c>
       <c r="AC10" t="n">
-        <v>440.6618561510665</v>
+        <v>536.9384331838307</v>
       </c>
       <c r="AD10" t="n">
-        <v>356044.1192677833</v>
+        <v>433833.2643849775</v>
       </c>
       <c r="AE10" t="n">
-        <v>487155.2715401404</v>
+        <v>593589.8117043627</v>
       </c>
       <c r="AF10" t="n">
         <v>1.067885160719121e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>440661.8561510665</v>
+        <v>536938.4331838307</v>
       </c>
     </row>
     <row r="11">
@@ -45737,28 +45737,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>351.0633238752059</v>
+        <v>428.8524689924001</v>
       </c>
       <c r="AB11" t="n">
-        <v>480.3403275468316</v>
+        <v>586.774867711054</v>
       </c>
       <c r="AC11" t="n">
-        <v>434.4973208476451</v>
+        <v>530.7738978804092</v>
       </c>
       <c r="AD11" t="n">
-        <v>351063.3238752059</v>
+        <v>428852.4689924001</v>
       </c>
       <c r="AE11" t="n">
-        <v>480340.3275468316</v>
+        <v>586774.8677110539</v>
       </c>
       <c r="AF11" t="n">
         <v>1.078104157472414e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.19166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>434497.3208476451</v>
+        <v>530773.8978804093</v>
       </c>
     </row>
     <row r="12">
@@ -45843,28 +45843,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>346.8867215664143</v>
+        <v>415.0078687282102</v>
       </c>
       <c r="AB12" t="n">
-        <v>474.6257160092534</v>
+        <v>567.8320748489322</v>
       </c>
       <c r="AC12" t="n">
-        <v>429.3281038147057</v>
+        <v>513.6389785826718</v>
       </c>
       <c r="AD12" t="n">
-        <v>346886.7215664143</v>
+        <v>415007.8687282102</v>
       </c>
       <c r="AE12" t="n">
-        <v>474625.7160092534</v>
+        <v>567832.0748489322</v>
       </c>
       <c r="AF12" t="n">
         <v>1.085375366700719e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.0875</v>
       </c>
       <c r="AH12" t="n">
-        <v>429328.1038147057</v>
+        <v>513638.9785826718</v>
       </c>
     </row>
     <row r="13">
@@ -45949,28 +45949,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>344.2235283962601</v>
+        <v>412.344675558056</v>
       </c>
       <c r="AB13" t="n">
-        <v>470.981817622058</v>
+        <v>564.1881764617369</v>
       </c>
       <c r="AC13" t="n">
-        <v>426.0319739753407</v>
+        <v>510.3428487433068</v>
       </c>
       <c r="AD13" t="n">
-        <v>344223.5283962601</v>
+        <v>412344.675558056</v>
       </c>
       <c r="AE13" t="n">
-        <v>470981.817622058</v>
+        <v>564188.1764617369</v>
       </c>
       <c r="AF13" t="n">
         <v>1.090131130574367e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.02083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>426031.9739753407</v>
+        <v>510342.8487433068</v>
       </c>
     </row>
     <row r="14">
@@ -46055,28 +46055,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>330.7224461137603</v>
+        <v>408.5789110386589</v>
       </c>
       <c r="AB14" t="n">
-        <v>452.5090412174287</v>
+        <v>559.0356913124923</v>
       </c>
       <c r="AC14" t="n">
-        <v>409.3222134240646</v>
+        <v>505.6821095451479</v>
       </c>
       <c r="AD14" t="n">
-        <v>330722.4461137604</v>
+        <v>408578.9110386589</v>
       </c>
       <c r="AE14" t="n">
-        <v>452509.0412174286</v>
+        <v>559035.6913124924</v>
       </c>
       <c r="AF14" t="n">
         <v>1.09449385611135e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.9625</v>
       </c>
       <c r="AH14" t="n">
-        <v>409322.2134240646</v>
+        <v>505682.1095451479</v>
       </c>
     </row>
     <row r="15">
@@ -46161,28 +46161,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>327.8356707358178</v>
+        <v>405.6921356607164</v>
       </c>
       <c r="AB15" t="n">
-        <v>448.5592277897862</v>
+        <v>555.0858778848498</v>
       </c>
       <c r="AC15" t="n">
-        <v>405.7493646463584</v>
+        <v>502.1092607674417</v>
       </c>
       <c r="AD15" t="n">
-        <v>327835.6707358178</v>
+        <v>405692.1356607163</v>
       </c>
       <c r="AE15" t="n">
-        <v>448559.2277897862</v>
+        <v>555085.8778848498</v>
       </c>
       <c r="AF15" t="n">
         <v>1.100310823493994e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.88333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>405749.3646463584</v>
+        <v>502109.2607674417</v>
       </c>
     </row>
     <row r="16">
@@ -46267,28 +46267,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>324.4208682592173</v>
+        <v>402.2773331841159</v>
       </c>
       <c r="AB16" t="n">
-        <v>443.8869443908485</v>
+        <v>550.4135944859122</v>
       </c>
       <c r="AC16" t="n">
-        <v>401.5229974174244</v>
+        <v>497.8828935385077</v>
       </c>
       <c r="AD16" t="n">
-        <v>324420.8682592174</v>
+        <v>402277.3331841159</v>
       </c>
       <c r="AE16" t="n">
-        <v>443886.9443908485</v>
+        <v>550413.5944859122</v>
       </c>
       <c r="AF16" t="n">
         <v>1.10530241036964e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.81666666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>401522.9974174245</v>
+        <v>497882.8935385077</v>
       </c>
     </row>
     <row r="17">
@@ -46373,28 +46373,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>320.791555782549</v>
+        <v>398.6480207074475</v>
       </c>
       <c r="AB17" t="n">
-        <v>438.9211589463047</v>
+        <v>545.4478090413684</v>
       </c>
       <c r="AC17" t="n">
-        <v>397.0311395661843</v>
+        <v>493.3910356872676</v>
       </c>
       <c r="AD17" t="n">
-        <v>320791.555782549</v>
+        <v>398648.0207074475</v>
       </c>
       <c r="AE17" t="n">
-        <v>438921.1589463048</v>
+        <v>545447.8090413684</v>
       </c>
       <c r="AF17" t="n">
         <v>1.108486020896628e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.775</v>
       </c>
       <c r="AH17" t="n">
-        <v>397031.1395661843</v>
+        <v>493391.0356872675</v>
       </c>
     </row>
     <row r="18">
@@ -46479,28 +46479,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>320.2536252470796</v>
+        <v>398.1100901719781</v>
       </c>
       <c r="AB18" t="n">
-        <v>438.1851386558552</v>
+        <v>544.7117887509188</v>
       </c>
       <c r="AC18" t="n">
-        <v>396.3653640192443</v>
+        <v>492.7252601403275</v>
       </c>
       <c r="AD18" t="n">
-        <v>320253.6252470796</v>
+        <v>398110.0901719781</v>
       </c>
       <c r="AE18" t="n">
-        <v>438185.1386558552</v>
+        <v>544711.7887509188</v>
       </c>
       <c r="AF18" t="n">
         <v>1.110176085744288e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.75</v>
       </c>
       <c r="AH18" t="n">
-        <v>396365.3640192443</v>
+        <v>492725.2601403275</v>
       </c>
     </row>
     <row r="19">
@@ -46585,28 +46585,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>319.8081895967809</v>
+        <v>397.6646545216795</v>
       </c>
       <c r="AB19" t="n">
-        <v>437.5756739478826</v>
+        <v>544.1023240429462</v>
       </c>
       <c r="AC19" t="n">
-        <v>395.8140657676115</v>
+        <v>492.1739618886947</v>
       </c>
       <c r="AD19" t="n">
-        <v>319808.1895967809</v>
+        <v>397664.6545216795</v>
       </c>
       <c r="AE19" t="n">
-        <v>437575.6739478826</v>
+        <v>544102.3240429462</v>
       </c>
       <c r="AF19" t="n">
         <v>1.109940262742289e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.75416666666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>395814.0657676115</v>
+        <v>492173.9618886947</v>
       </c>
     </row>
     <row r="20">
@@ -46691,28 +46691,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>319.1153243496371</v>
+        <v>396.9717892745358</v>
       </c>
       <c r="AB20" t="n">
-        <v>436.6276651496831</v>
+        <v>543.1543152447468</v>
       </c>
       <c r="AC20" t="n">
-        <v>394.9565335985734</v>
+        <v>491.3164297196567</v>
       </c>
       <c r="AD20" t="n">
-        <v>319115.3243496371</v>
+        <v>396971.7892745357</v>
       </c>
       <c r="AE20" t="n">
-        <v>436627.6651496831</v>
+        <v>543154.3152447469</v>
       </c>
       <c r="AF20" t="n">
         <v>1.112652227265278e-05</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.71666666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>394956.5335985734</v>
+        <v>491316.4297196567</v>
       </c>
     </row>
   </sheetData>
@@ -46988,28 +46988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.1090171572742</v>
+        <v>312.3418759581306</v>
       </c>
       <c r="AB2" t="n">
-        <v>316.2135530846879</v>
+        <v>427.3599342369706</v>
       </c>
       <c r="AC2" t="n">
-        <v>286.0345753868882</v>
+        <v>386.5733019168282</v>
       </c>
       <c r="AD2" t="n">
-        <v>231109.0171572742</v>
+        <v>312341.8759581306</v>
       </c>
       <c r="AE2" t="n">
-        <v>316213.5530846879</v>
+        <v>427359.9342369706</v>
       </c>
       <c r="AF2" t="n">
         <v>2.345841022998013e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>286034.5753868882</v>
+        <v>386573.3019168282</v>
       </c>
     </row>
   </sheetData>
@@ -47285,28 +47285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>519.8798531807224</v>
+        <v>633.0614968616309</v>
       </c>
       <c r="AB2" t="n">
-        <v>711.3225506022826</v>
+        <v>866.1826687082166</v>
       </c>
       <c r="AC2" t="n">
-        <v>643.4349247202701</v>
+        <v>783.5154105017145</v>
       </c>
       <c r="AD2" t="n">
-        <v>519879.8531807224</v>
+        <v>633061.4968616308</v>
       </c>
       <c r="AE2" t="n">
-        <v>711322.5506022826</v>
+        <v>866182.6687082166</v>
       </c>
       <c r="AF2" t="n">
         <v>9.632437570823485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.4875</v>
       </c>
       <c r="AH2" t="n">
-        <v>643434.9247202701</v>
+        <v>783515.4105017146</v>
       </c>
     </row>
     <row r="3">
@@ -47391,28 +47391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.0471912205736</v>
+        <v>438.9336767387192</v>
       </c>
       <c r="AB3" t="n">
-        <v>484.4229864877004</v>
+        <v>600.5684209010644</v>
       </c>
       <c r="AC3" t="n">
-        <v>438.1903365492452</v>
+        <v>543.2510137133388</v>
       </c>
       <c r="AD3" t="n">
-        <v>354047.1912205736</v>
+        <v>438933.6767387192</v>
       </c>
       <c r="AE3" t="n">
-        <v>484422.9864877004</v>
+        <v>600568.4209010644</v>
       </c>
       <c r="AF3" t="n">
         <v>1.255855689549512e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.24583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>438190.3365492452</v>
+        <v>543251.0137133388</v>
       </c>
     </row>
     <row r="4">
@@ -47497,28 +47497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.246896734211</v>
+        <v>393.1665366412801</v>
       </c>
       <c r="AB4" t="n">
-        <v>421.7570030050707</v>
+        <v>537.9478007160284</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.5051065779374</v>
+        <v>486.6068176301702</v>
       </c>
       <c r="AD4" t="n">
-        <v>308246.896734211</v>
+        <v>393166.5366412801</v>
       </c>
       <c r="AE4" t="n">
-        <v>421757.0030050707</v>
+        <v>537947.8007160284</v>
       </c>
       <c r="AF4" t="n">
         <v>1.356234734067915e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.97083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>381505.1065779374</v>
+        <v>486606.8176301701</v>
       </c>
     </row>
     <row r="5">
@@ -47603,28 +47603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>294.390031913087</v>
+        <v>369.8334095707181</v>
       </c>
       <c r="AB5" t="n">
-        <v>402.797429235078</v>
+        <v>506.0223868731695</v>
       </c>
       <c r="AC5" t="n">
-        <v>364.3550079186239</v>
+        <v>457.7283204768738</v>
       </c>
       <c r="AD5" t="n">
-        <v>294390.031913087</v>
+        <v>369833.4095707181</v>
       </c>
       <c r="AE5" t="n">
-        <v>402797.429235078</v>
+        <v>506022.3868731695</v>
       </c>
       <c r="AF5" t="n">
         <v>1.407801804063905e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.3875</v>
       </c>
       <c r="AH5" t="n">
-        <v>364355.0079186239</v>
+        <v>457728.3204768738</v>
       </c>
     </row>
     <row r="6">
@@ -47709,28 +47709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>285.2414716621684</v>
+        <v>351.3100722968465</v>
       </c>
       <c r="AB6" t="n">
-        <v>390.2799654937779</v>
+        <v>480.6779396230923</v>
       </c>
       <c r="AC6" t="n">
-        <v>353.0321933484228</v>
+        <v>434.8027117011889</v>
       </c>
       <c r="AD6" t="n">
-        <v>285241.4716621684</v>
+        <v>351310.0722968465</v>
       </c>
       <c r="AE6" t="n">
-        <v>390279.9654937779</v>
+        <v>480677.9396230923</v>
       </c>
       <c r="AF6" t="n">
         <v>1.438679666541342e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.05416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>353032.1933484228</v>
+        <v>434802.7117011889</v>
       </c>
     </row>
     <row r="7">
@@ -47815,28 +47815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>269.8987338085634</v>
+        <v>345.4094312738988</v>
       </c>
       <c r="AB7" t="n">
-        <v>369.2873546886528</v>
+        <v>472.6044222575857</v>
       </c>
       <c r="AC7" t="n">
-        <v>334.0430878552245</v>
+        <v>427.4997195017935</v>
       </c>
       <c r="AD7" t="n">
-        <v>269898.7338085634</v>
+        <v>345409.4312738988</v>
       </c>
       <c r="AE7" t="n">
-        <v>369287.3546886528</v>
+        <v>472604.4222575857</v>
       </c>
       <c r="AF7" t="n">
         <v>1.454742392981626e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.8875</v>
       </c>
       <c r="AH7" t="n">
-        <v>334043.0878552245</v>
+        <v>427499.7195017935</v>
       </c>
     </row>
     <row r="8">
@@ -47921,28 +47921,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>269.1423715496751</v>
+        <v>344.6530690150106</v>
       </c>
       <c r="AB8" t="n">
-        <v>368.2524664776941</v>
+        <v>471.569534046627</v>
       </c>
       <c r="AC8" t="n">
-        <v>333.106967922645</v>
+        <v>426.563599569214</v>
       </c>
       <c r="AD8" t="n">
-        <v>269142.3715496751</v>
+        <v>344653.0690150106</v>
       </c>
       <c r="AE8" t="n">
-        <v>368252.4664776941</v>
+        <v>471569.534046627</v>
       </c>
       <c r="AF8" t="n">
         <v>1.460044652194923e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>333106.967922645</v>
+        <v>426563.599569214</v>
       </c>
     </row>
   </sheetData>
@@ -48218,28 +48218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>689.4694620377207</v>
+        <v>823.1704024878698</v>
       </c>
       <c r="AB2" t="n">
-        <v>943.3625352059336</v>
+        <v>1126.298060399027</v>
       </c>
       <c r="AC2" t="n">
-        <v>853.3293388635124</v>
+        <v>1018.805754283799</v>
       </c>
       <c r="AD2" t="n">
-        <v>689469.4620377207</v>
+        <v>823170.4024878697</v>
       </c>
       <c r="AE2" t="n">
-        <v>943362.5352059336</v>
+        <v>1126298.060399027</v>
       </c>
       <c r="AF2" t="n">
         <v>7.441654551396725e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.91666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>853329.3388635124</v>
+        <v>1018805.754283799</v>
       </c>
     </row>
     <row r="3">
@@ -48324,28 +48324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.2839248570137</v>
+        <v>503.211136591409</v>
       </c>
       <c r="AB3" t="n">
-        <v>570.946275256871</v>
+        <v>688.515677192908</v>
       </c>
       <c r="AC3" t="n">
-        <v>516.4559640744847</v>
+        <v>622.8047072994384</v>
       </c>
       <c r="AD3" t="n">
-        <v>417283.9248570137</v>
+        <v>503211.136591409</v>
       </c>
       <c r="AE3" t="n">
-        <v>570946.275256871</v>
+        <v>688515.677192908</v>
       </c>
       <c r="AF3" t="n">
         <v>1.0502652346283e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.3625</v>
       </c>
       <c r="AH3" t="n">
-        <v>516455.9640744847</v>
+        <v>622804.7072994384</v>
       </c>
     </row>
     <row r="4">
@@ -48430,28 +48430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>359.0530638434396</v>
+        <v>445.0134299667585</v>
       </c>
       <c r="AB4" t="n">
-        <v>491.2722422538193</v>
+        <v>608.8870074874501</v>
       </c>
       <c r="AC4" t="n">
-        <v>444.3859089580366</v>
+        <v>550.7756860711295</v>
       </c>
       <c r="AD4" t="n">
-        <v>359053.0638434396</v>
+        <v>445013.4299667585</v>
       </c>
       <c r="AE4" t="n">
-        <v>491272.2422538193</v>
+        <v>608887.0074874501</v>
       </c>
       <c r="AF4" t="n">
         <v>1.157096973787494e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>444385.9089580366</v>
+        <v>550775.6860711295</v>
       </c>
     </row>
     <row r="5">
@@ -48536,28 +48536,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>331.4589082107983</v>
+        <v>417.3851089153364</v>
       </c>
       <c r="AB5" t="n">
-        <v>453.5167011490105</v>
+        <v>571.0847197493937</v>
       </c>
       <c r="AC5" t="n">
-        <v>410.233703706036</v>
+        <v>516.5811956189489</v>
       </c>
       <c r="AD5" t="n">
-        <v>331458.9082107983</v>
+        <v>417385.1089153364</v>
       </c>
       <c r="AE5" t="n">
-        <v>453516.7011490106</v>
+        <v>571084.7197493936</v>
       </c>
       <c r="AF5" t="n">
         <v>1.212271771481497e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.90833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>410233.703706036</v>
+        <v>516581.1956189489</v>
       </c>
     </row>
     <row r="6">
@@ -48642,28 +48642,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>320.8099200365953</v>
+        <v>397.1480184030876</v>
       </c>
       <c r="AB6" t="n">
-        <v>438.9462857288647</v>
+        <v>543.3954397131121</v>
       </c>
       <c r="AC6" t="n">
-        <v>397.0538682838823</v>
+        <v>491.5345416071814</v>
       </c>
       <c r="AD6" t="n">
-        <v>320809.9200365953</v>
+        <v>397148.0184030876</v>
       </c>
       <c r="AE6" t="n">
-        <v>438946.2857288647</v>
+        <v>543395.4397131121</v>
       </c>
       <c r="AF6" t="n">
         <v>1.245598830491297e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.48333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>397053.8682838823</v>
+        <v>491534.5416071814</v>
       </c>
     </row>
     <row r="7">
@@ -48748,28 +48748,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>313.133100562776</v>
+        <v>389.4711989292683</v>
       </c>
       <c r="AB7" t="n">
-        <v>428.4425226474125</v>
+        <v>532.8916766316597</v>
       </c>
       <c r="AC7" t="n">
-        <v>387.5525696087998</v>
+        <v>482.0332429320989</v>
       </c>
       <c r="AD7" t="n">
-        <v>313133.100562776</v>
+        <v>389471.1989292683</v>
       </c>
       <c r="AE7" t="n">
-        <v>428442.5226474125</v>
+        <v>532891.6766316597</v>
       </c>
       <c r="AF7" t="n">
         <v>1.267353994011584e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.21666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>387552.5696087998</v>
+        <v>482033.2429320989</v>
       </c>
     </row>
     <row r="8">
@@ -48854,28 +48854,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>307.3675992526479</v>
+        <v>374.2190805075796</v>
       </c>
       <c r="AB8" t="n">
-        <v>420.553909398929</v>
+        <v>512.0230553311297</v>
       </c>
       <c r="AC8" t="n">
-        <v>380.4168345370134</v>
+        <v>463.1562935591976</v>
       </c>
       <c r="AD8" t="n">
-        <v>307367.5992526479</v>
+        <v>374219.0805075796</v>
       </c>
       <c r="AE8" t="n">
-        <v>420553.909398929</v>
+        <v>512023.0553311298</v>
       </c>
       <c r="AF8" t="n">
         <v>1.281564281672707e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.05</v>
       </c>
       <c r="AH8" t="n">
-        <v>380416.8345370134</v>
+        <v>463156.2935591976</v>
       </c>
     </row>
     <row r="9">
@@ -48960,28 +48960,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>291.8090607505577</v>
+        <v>368.2144789247544</v>
       </c>
       <c r="AB9" t="n">
-        <v>399.2660306260937</v>
+        <v>503.8072945411825</v>
       </c>
       <c r="AC9" t="n">
-        <v>361.160641036532</v>
+        <v>455.7246334481503</v>
       </c>
       <c r="AD9" t="n">
-        <v>291809.0607505577</v>
+        <v>368214.4789247544</v>
       </c>
       <c r="AE9" t="n">
-        <v>399266.0306260937</v>
+        <v>503807.2945411825</v>
       </c>
       <c r="AF9" t="n">
         <v>1.29531169351425e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.89166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>361160.641036532</v>
+        <v>455724.6334481502</v>
       </c>
     </row>
     <row r="10">
@@ -49066,28 +49066,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>287.7701419159199</v>
+        <v>364.1755600901166</v>
       </c>
       <c r="AB10" t="n">
-        <v>393.7398036920189</v>
+        <v>498.2810676071077</v>
       </c>
       <c r="AC10" t="n">
-        <v>356.161829444937</v>
+        <v>450.7258218565553</v>
       </c>
       <c r="AD10" t="n">
-        <v>287770.1419159198</v>
+        <v>364175.5600901166</v>
       </c>
       <c r="AE10" t="n">
-        <v>393739.803692019</v>
+        <v>498281.0676071077</v>
       </c>
       <c r="AF10" t="n">
         <v>1.302486268717749e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.80833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>356161.8294449371</v>
+        <v>450725.8218565553</v>
       </c>
     </row>
     <row r="11">
@@ -49172,28 +49172,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>286.0499465987078</v>
+        <v>362.4553647729045</v>
       </c>
       <c r="AB11" t="n">
-        <v>391.3861565693481</v>
+        <v>495.9274204844368</v>
       </c>
       <c r="AC11" t="n">
-        <v>354.0328111002895</v>
+        <v>448.5968035119076</v>
       </c>
       <c r="AD11" t="n">
-        <v>286049.9465987078</v>
+        <v>362455.3647729045</v>
       </c>
       <c r="AE11" t="n">
-        <v>391386.1565693481</v>
+        <v>495927.4204844368</v>
       </c>
       <c r="AF11" t="n">
         <v>1.307439039987261e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.75</v>
       </c>
       <c r="AH11" t="n">
-        <v>354032.8111002895</v>
+        <v>448596.8035119076</v>
       </c>
     </row>
   </sheetData>
